--- a/CP01CNSM/Omaha_Cal_Info_CP01CNSM_00004.xlsx
+++ b/CP01CNSM/Omaha_Cal_Info_CP01CNSM_00004.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\Ingest sheets\ingestion-csvs\CP01CNSM\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="260" windowWidth="23780" windowHeight="12420" tabRatio="766"/>
+    <workbookView xWindow="645" yWindow="255" windowWidth="23775" windowHeight="12420" tabRatio="766" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -19,7 +24,7 @@
     <definedName name="_FilterDatabase_0">[1]Moorings!#REF!</definedName>
     <definedName name="_FilterDatabase_0_0_0">[1]Moorings!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -29,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="194">
   <si>
     <t>Ref Des</t>
   </si>
@@ -496,9 +501,6 @@
     <t>AT-31</t>
   </si>
   <si>
-    <t>??</t>
-  </si>
-  <si>
     <t>CP01CNSM-SBD11-02-HYDGN0000</t>
   </si>
   <si>
@@ -618,21 +620,30 @@
   <si>
     <t>No deployed</t>
   </si>
+  <si>
+    <t>CP01CNSM-SBD11-HYDGN</t>
+  </si>
+  <si>
+    <t>CP01CNSM-SBD12-HYDGN</t>
+  </si>
+  <si>
+    <t>CP01CNSM-00005</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="9">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="167" formatCode="0.0000"/>
-    <numFmt numFmtId="168" formatCode="0.0000000"/>
-    <numFmt numFmtId="169" formatCode="[$-409]d\-mmm\-yy;@"/>
-    <numFmt numFmtId="170" formatCode="0.000"/>
-    <numFmt numFmtId="171" formatCode="0.000E+00"/>
-    <numFmt numFmtId="172" formatCode="0.0000000000000"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0000000"/>
+    <numFmt numFmtId="167" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="0.000E+00"/>
+    <numFmt numFmtId="170" formatCode="0.0000000000000"/>
   </numFmts>
   <fonts count="34" x14ac:knownFonts="1">
     <font>
@@ -1045,13 +1056,13 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
@@ -1076,7 +1087,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -1382,7 +1393,7 @@
     <xf numFmtId="14" fontId="16" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1394,7 +1405,7 @@
     <xf numFmtId="49" fontId="16" fillId="0" borderId="3" xfId="83" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="16" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1403,7 +1414,7 @@
     <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
@@ -1415,10 +1426,10 @@
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="16" fillId="7" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="7" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="17" fillId="7" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="17" fillId="7" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1468,7 +1479,7 @@
     <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="30" fillId="7" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="30" fillId="7" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1489,10 +1500,10 @@
     <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="16" fillId="9" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="9" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="18" fillId="9" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="9" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="11" fontId="17" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1513,7 +1524,7 @@
     <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="18" fillId="9" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="9" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1541,18 +1552,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="172" fontId="16" fillId="9" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="16" fillId="9" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="167" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="16" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="16" fillId="9" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="9" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1568,16 +1579,16 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="18" fillId="9" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="18" fillId="9" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="171" fontId="18" fillId="9" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="18" fillId="9" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="17" fillId="9" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="17" fillId="9" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="17" fillId="9" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="17" fillId="9" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1848,12 +1859,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Read Me"/>
@@ -2158,29 +2172,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="67" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="67" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="67" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="68" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" style="69" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" style="68" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" style="67" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" style="67" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.1640625" style="67" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="67" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.6640625" style="67" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="67" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="68" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="69" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="68" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="67" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="67" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="67" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="67" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.7109375" style="67" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" style="67" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" style="67" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.83203125" style="67"/>
+    <col min="13" max="13" width="12.7109375" style="67" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="64" customFormat="1" ht="28">
+    <row r="1" spans="1:13" s="64" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
@@ -2215,9 +2229,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="65" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>149</v>
@@ -2233,10 +2247,10 @@
       </c>
       <c r="F2" s="66"/>
       <c r="G2" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>174</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>175</v>
       </c>
       <c r="I2" s="12">
         <v>136</v>
@@ -2254,8 +2268,8 @@
         <v>-70.778433333333339</v>
       </c>
     </row>
-    <row r="4" spans="1:13" customFormat="1"/>
-    <row r="5" spans="1:13" customFormat="1"/>
+    <row r="4" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -2269,31 +2283,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M383"/>
+  <dimension ref="A1:T383"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D155" sqref="D155"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A205" sqref="A205"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="28.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="37.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25" style="1" customWidth="1"/>
     <col min="7" max="7" width="32" style="9" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" style="1"/>
-    <col min="9" max="9" width="4.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="1"/>
+    <col min="9" max="9" width="4.140625" style="1" customWidth="1"/>
     <col min="10" max="10" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.83203125" style="1"/>
+    <col min="13" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="8" customFormat="1" ht="28">
+    <row r="1" spans="1:11" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2320,7 +2334,7 @@
       <c r="J1" s="42"/>
       <c r="K1" s="42"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" s="19"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -2328,7 +2342,7 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>35</v>
       </c>
@@ -2339,13 +2353,13 @@
         <v>4</v>
       </c>
       <c r="D3" s="104" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G3" s="78" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="50" customFormat="1">
+    <row r="4" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="48"/>
       <c r="B4" s="18"/>
       <c r="C4" s="51"/>
@@ -2353,9 +2367,9 @@
       <c r="E4" s="47"/>
       <c r="F4" s="47"/>
     </row>
-    <row r="5" spans="1:11" s="79" customFormat="1">
+    <row r="5" spans="1:11" s="79" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="95" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>149</v>
@@ -2364,15 +2378,15 @@
         <v>4</v>
       </c>
       <c r="D5" s="98" t="s">
-        <v>151</v>
+        <v>191</v>
       </c>
       <c r="G5" s="79" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="79" customFormat="1">
+    <row r="6" spans="1:11" s="79" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="95" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>149</v>
@@ -2381,17 +2395,17 @@
         <v>4</v>
       </c>
       <c r="D6" s="98" t="s">
-        <v>151</v>
+        <v>192</v>
       </c>
       <c r="G6" s="79" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="50" customFormat="1">
+    <row r="7" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="48"/>
       <c r="C7" s="51"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
@@ -2402,7 +2416,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="126" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>5</v>
@@ -2412,7 +2426,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
@@ -2423,7 +2437,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="127" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>6</v>
@@ -2433,7 +2447,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>36</v>
       </c>
@@ -2444,7 +2458,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="127" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>38</v>
@@ -2454,7 +2468,7 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>36</v>
       </c>
@@ -2465,7 +2479,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="127" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>39</v>
@@ -2475,7 +2489,7 @@
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>36</v>
       </c>
@@ -2486,7 +2500,7 @@
         <v>4</v>
       </c>
       <c r="D12" s="127" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>40</v>
@@ -2496,7 +2510,7 @@
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>36</v>
       </c>
@@ -2507,7 +2521,7 @@
         <v>4</v>
       </c>
       <c r="D13" s="127" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>41</v>
@@ -2517,7 +2531,7 @@
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>36</v>
       </c>
@@ -2528,7 +2542,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="127" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>42</v>
@@ -2540,7 +2554,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>36</v>
       </c>
@@ -2551,7 +2565,7 @@
         <v>4</v>
       </c>
       <c r="D15" s="127" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>43</v>
@@ -2563,7 +2577,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>36</v>
       </c>
@@ -2574,7 +2588,7 @@
         <v>4</v>
       </c>
       <c r="D16" s="127" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>44</v>
@@ -2586,7 +2600,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="50" customFormat="1">
+    <row r="17" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="48"/>
       <c r="B17" s="18"/>
       <c r="C17" s="51"/>
@@ -2594,7 +2608,7 @@
       <c r="E17" s="47"/>
       <c r="F17" s="47"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>37</v>
       </c>
@@ -2605,7 +2619,7 @@
         <v>4</v>
       </c>
       <c r="D18" s="126" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>5</v>
@@ -2615,7 +2629,7 @@
       </c>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>37</v>
       </c>
@@ -2626,7 +2640,7 @@
         <v>4</v>
       </c>
       <c r="D19" s="127" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>6</v>
@@ -2636,7 +2650,7 @@
       </c>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
@@ -2647,7 +2661,7 @@
         <v>4</v>
       </c>
       <c r="D20" s="127" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>38</v>
@@ -2657,7 +2671,7 @@
       </c>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>37</v>
       </c>
@@ -2668,7 +2682,7 @@
         <v>4</v>
       </c>
       <c r="D21" s="127" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>39</v>
@@ -2678,7 +2692,7 @@
       </c>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>37</v>
       </c>
@@ -2689,7 +2703,7 @@
         <v>4</v>
       </c>
       <c r="D22" s="127" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>40</v>
@@ -2699,7 +2713,7 @@
       </c>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>37</v>
       </c>
@@ -2710,7 +2724,7 @@
         <v>4</v>
       </c>
       <c r="D23" s="127" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>41</v>
@@ -2720,7 +2734,7 @@
       </c>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>37</v>
       </c>
@@ -2731,7 +2745,7 @@
         <v>4</v>
       </c>
       <c r="D24" s="127" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>42</v>
@@ -2743,7 +2757,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>37</v>
       </c>
@@ -2754,7 +2768,7 @@
         <v>4</v>
       </c>
       <c r="D25" s="127" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>43</v>
@@ -2766,7 +2780,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>37</v>
       </c>
@@ -2777,7 +2791,7 @@
         <v>4</v>
       </c>
       <c r="D26" s="127" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>44</v>
@@ -2789,7 +2803,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="50" customFormat="1">
+    <row r="27" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="48"/>
       <c r="B27" s="18"/>
       <c r="C27" s="51"/>
@@ -2797,7 +2811,7 @@
       <c r="E27" s="47"/>
       <c r="F27" s="47"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
         <v>45</v>
       </c>
@@ -2808,13 +2822,13 @@
         <v>4</v>
       </c>
       <c r="D28" s="96" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G28" s="78" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="50" customFormat="1">
+    <row r="29" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="48"/>
       <c r="B29" s="18"/>
       <c r="C29" s="51"/>
@@ -2822,7 +2836,7 @@
       <c r="E29" s="47"/>
       <c r="F29" s="47"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
         <v>46</v>
       </c>
@@ -2833,7 +2847,7 @@
         <v>4</v>
       </c>
       <c r="D30" s="96" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>5</v>
@@ -2843,7 +2857,7 @@
       </c>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="53" t="s">
         <v>46</v>
       </c>
@@ -2854,7 +2868,7 @@
         <v>4</v>
       </c>
       <c r="D31" s="97" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>6</v>
@@ -2864,7 +2878,7 @@
       </c>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" s="50" customFormat="1">
+    <row r="32" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="48"/>
       <c r="B32" s="18"/>
       <c r="C32" s="51"/>
@@ -2872,7 +2886,7 @@
       <c r="E32" s="47"/>
       <c r="F32" s="47"/>
     </row>
-    <row r="33" spans="1:7" s="50" customFormat="1">
+    <row r="33" spans="1:13" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="26" t="s">
         <v>139</v>
       </c>
@@ -2892,20 +2906,28 @@
         <v>40.133233333333337</v>
       </c>
       <c r="G33" s="78" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="50" customFormat="1">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="48"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
+      <c r="B34" s="128" t="s">
+        <v>193</v>
+      </c>
+      <c r="C34" s="51">
+        <v>4</v>
+      </c>
+      <c r="D34" s="111">
+        <v>144904</v>
+      </c>
+      <c r="E34" s="50" t="s">
+        <v>6</v>
+      </c>
       <c r="F34" s="124">
         <v>-70.778433333333339</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="50" customFormat="1">
+    <row r="35" spans="1:13" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="48"/>
       <c r="B35" s="18"/>
       <c r="C35" s="51"/>
@@ -2913,7 +2935,7 @@
       <c r="E35" s="47"/>
       <c r="F35" s="47"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
         <v>47</v>
       </c>
@@ -2924,7 +2946,7 @@
         <v>4</v>
       </c>
       <c r="D36" s="99" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>5</v>
@@ -2934,7 +2956,7 @@
       </c>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="53" t="s">
         <v>47</v>
       </c>
@@ -2945,7 +2967,7 @@
         <v>4</v>
       </c>
       <c r="D37" s="97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>6</v>
@@ -2955,7 +2977,7 @@
       </c>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7" s="50" customFormat="1">
+    <row r="38" spans="1:13" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="48"/>
       <c r="B38" s="18"/>
       <c r="C38" s="51"/>
@@ -2963,51 +2985,50 @@
       <c r="E38" s="47"/>
       <c r="F38" s="47"/>
     </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="13" t="s">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G39" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="H39" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="C39" s="51">
+      <c r="I39" s="51">
         <v>4</v>
       </c>
-      <c r="D39" s="96" t="s">
-        <v>156</v>
-      </c>
-      <c r="E39" s="1" t="s">
+      <c r="J39" s="96" t="s">
+        <v>155</v>
+      </c>
+      <c r="K39" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F39" s="123">
+      <c r="L39" s="123">
         <v>40.133233333333337</v>
       </c>
-      <c r="G39" s="129" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="53" t="s">
+      <c r="M39" s="129" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G40" s="53" t="s">
         <v>140</v>
       </c>
-      <c r="B40" s="52" t="s">
+      <c r="H40" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C40" s="2">
+      <c r="I40" s="2">
         <v>4</v>
       </c>
-      <c r="D40" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="E40" s="1" t="s">
+      <c r="J40" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="K40" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F40" s="124">
+      <c r="L40" s="124">
         <v>-70.778433333333339</v>
       </c>
-      <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="1:7" s="50" customFormat="1">
+    </row>
+    <row r="41" spans="1:13" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="48"/>
       <c r="B41" s="18"/>
       <c r="C41" s="51"/>
@@ -3015,146 +3036,141 @@
       <c r="E41" s="47"/>
       <c r="F41" s="47"/>
     </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="16" t="s">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G42" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="H42" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="C42" s="51">
+      <c r="I42" s="51">
         <v>4</v>
       </c>
-      <c r="D42" s="96" t="s">
-        <v>156</v>
-      </c>
-      <c r="E42" s="22" t="s">
+      <c r="J42" s="96" t="s">
+        <v>155</v>
+      </c>
+      <c r="K42" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="F42" s="100"/>
-      <c r="G42" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="54" t="s">
+      <c r="L42" s="100"/>
+      <c r="M42" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G43" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="52" t="s">
+      <c r="H43" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C43" s="2">
+      <c r="I43" s="2">
         <v>4</v>
       </c>
-      <c r="D43" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="E43" s="22" t="s">
+      <c r="J43" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="K43" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="F43" s="100"/>
-      <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="54" t="s">
+      <c r="L43" s="100"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G44" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="52" t="s">
+      <c r="H44" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C44" s="2">
+      <c r="I44" s="2">
         <v>4</v>
       </c>
-      <c r="D44" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="E44" s="22" t="s">
+      <c r="J44" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="K44" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="F44" s="100"/>
-      <c r="G44" s="1"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="54" t="s">
+      <c r="L44" s="100"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G45" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="B45" s="52" t="s">
+      <c r="H45" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C45" s="2">
+      <c r="I45" s="2">
         <v>4</v>
       </c>
-      <c r="D45" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="E45" s="22" t="s">
+      <c r="J45" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="K45" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="F45" s="100"/>
-      <c r="G45" s="1"/>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="54" t="s">
+      <c r="L45" s="100"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G46" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="B46" s="52" t="s">
+      <c r="H46" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C46" s="2">
+      <c r="I46" s="2">
         <v>4</v>
       </c>
-      <c r="D46" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="E46" s="22" t="s">
+      <c r="J46" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="K46" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="F46" s="101"/>
-      <c r="G46" s="1"/>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="54" t="s">
+      <c r="L46" s="101"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G47" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="B47" s="52" t="s">
+      <c r="H47" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C47" s="2">
+      <c r="I47" s="2">
         <v>4</v>
       </c>
-      <c r="D47" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="E47" s="22" t="s">
+      <c r="J47" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="K47" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F47" s="101"/>
-      <c r="G47" s="1"/>
-    </row>
-    <row r="48" spans="1:7" s="50" customFormat="1">
-      <c r="A48" s="54" t="s">
+      <c r="L47" s="101"/>
+    </row>
+    <row r="48" spans="1:13" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G48" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="52" t="s">
+      <c r="H48" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C48" s="2">
+      <c r="I48" s="2">
         <v>4</v>
       </c>
-      <c r="D48" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="E48" s="23" t="s">
+      <c r="J48" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="K48" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="F48" s="73">
+      <c r="L48" s="73">
         <v>35</v>
       </c>
-      <c r="G48" s="50" t="s">
+      <c r="M48" s="50" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="19"/>
       <c r="B49" s="18"/>
       <c r="C49" s="51"/>
@@ -3163,146 +3179,141 @@
       <c r="F49" s="47"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="16" t="s">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G50" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="18" t="s">
+      <c r="H50" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="C50" s="51">
+      <c r="I50" s="51">
         <v>4</v>
       </c>
-      <c r="D50" s="96" t="s">
-        <v>156</v>
-      </c>
-      <c r="E50" s="23" t="s">
+      <c r="J50" s="96" t="s">
+        <v>155</v>
+      </c>
+      <c r="K50" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F50" s="100"/>
-      <c r="G50" s="129" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="54" t="s">
+      <c r="L50" s="100"/>
+      <c r="M50" s="129" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G51" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="52" t="s">
+      <c r="H51" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C51" s="2">
+      <c r="I51" s="2">
         <v>4</v>
       </c>
-      <c r="D51" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="E51" s="23" t="s">
+      <c r="J51" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="K51" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F51" s="100"/>
-      <c r="G51" s="1"/>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="54" t="s">
+      <c r="L51" s="100"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G52" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="B52" s="52" t="s">
+      <c r="H52" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C52" s="2">
+      <c r="I52" s="2">
         <v>4</v>
       </c>
-      <c r="D52" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="E52" s="23" t="s">
+      <c r="J52" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="K52" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F52" s="100"/>
-      <c r="G52" s="1"/>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="54" t="s">
+      <c r="L52" s="100"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G53" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="B53" s="52" t="s">
+      <c r="H53" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C53" s="2">
+      <c r="I53" s="2">
         <v>4</v>
       </c>
-      <c r="D53" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="E53" s="23" t="s">
+      <c r="J53" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="K53" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F53" s="100"/>
-      <c r="G53" s="1"/>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="54" t="s">
+      <c r="L53" s="100"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G54" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="B54" s="52" t="s">
+      <c r="H54" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C54" s="2">
+      <c r="I54" s="2">
         <v>4</v>
       </c>
-      <c r="D54" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="E54" s="23" t="s">
+      <c r="J54" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="K54" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="F54" s="101"/>
-      <c r="G54" s="1"/>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="54" t="s">
+      <c r="L54" s="101"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G55" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="B55" s="52" t="s">
+      <c r="H55" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C55" s="2">
+      <c r="I55" s="2">
         <v>4</v>
       </c>
-      <c r="D55" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="E55" s="23" t="s">
+      <c r="J55" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="K55" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F55" s="101"/>
-      <c r="G55" s="1"/>
-    </row>
-    <row r="56" spans="1:7" s="50" customFormat="1">
-      <c r="A56" s="54" t="s">
+      <c r="L55" s="101"/>
+    </row>
+    <row r="56" spans="1:13" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G56" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="B56" s="52" t="s">
+      <c r="H56" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C56" s="2">
+      <c r="I56" s="2">
         <v>4</v>
       </c>
-      <c r="D56" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="E56" s="23" t="s">
+      <c r="J56" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="K56" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="F56" s="73">
+      <c r="L56" s="73">
         <v>35</v>
       </c>
-      <c r="G56" s="50" t="s">
+      <c r="M56" s="50" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="19"/>
       <c r="B57" s="18"/>
       <c r="C57" s="51"/>
@@ -3311,7 +3322,7 @@
       <c r="F57" s="19"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="20" t="s">
         <v>50</v>
       </c>
@@ -3322,17 +3333,17 @@
         <v>4</v>
       </c>
       <c r="D58" s="96" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E58" s="19" t="s">
         <v>128</v>
       </c>
       <c r="F58" s="112" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="55" t="s">
         <v>50</v>
       </c>
@@ -3343,17 +3354,17 @@
         <v>4</v>
       </c>
       <c r="D59" s="97" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E59" s="19" t="s">
         <v>129</v>
       </c>
       <c r="F59" s="112" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="55" t="s">
         <v>50</v>
       </c>
@@ -3364,7 +3375,7 @@
         <v>4</v>
       </c>
       <c r="D60" s="97" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E60" s="19" t="s">
         <v>52</v>
@@ -3374,7 +3385,7 @@
       </c>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="55" t="s">
         <v>50</v>
       </c>
@@ -3385,17 +3396,17 @@
         <v>4</v>
       </c>
       <c r="D61" s="97" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E61" s="19" t="s">
         <v>53</v>
       </c>
       <c r="F61" s="112" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="55" t="s">
         <v>50</v>
       </c>
@@ -3406,17 +3417,17 @@
         <v>4</v>
       </c>
       <c r="D62" s="97" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E62" s="19" t="s">
         <v>130</v>
       </c>
       <c r="F62" s="112" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="55" t="s">
         <v>50</v>
       </c>
@@ -3427,17 +3438,17 @@
         <v>4</v>
       </c>
       <c r="D63" s="97" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E63" s="19" t="s">
         <v>131</v>
       </c>
       <c r="F63" s="112" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="55" t="s">
         <v>50</v>
       </c>
@@ -3448,7 +3459,7 @@
         <v>4</v>
       </c>
       <c r="D64" s="97" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E64" s="19" t="s">
         <v>132</v>
@@ -3458,7 +3469,7 @@
       </c>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="1:7" s="24" customFormat="1">
+    <row r="65" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="55" t="s">
         <v>50</v>
       </c>
@@ -3469,7 +3480,7 @@
         <v>4</v>
       </c>
       <c r="D65" s="97" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E65" s="25" t="s">
         <v>133</v>
@@ -3478,7 +3489,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="19"/>
       <c r="B66" s="18"/>
       <c r="C66" s="51"/>
@@ -3487,161 +3498,154 @@
       <c r="F66" s="48"/>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="20" t="s">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G67" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B67" s="18" t="s">
+      <c r="H67" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="C67" s="51">
+      <c r="I67" s="51">
         <v>4</v>
       </c>
-      <c r="D67" s="96" t="s">
-        <v>156</v>
-      </c>
-      <c r="E67" s="19" t="s">
+      <c r="J67" s="96" t="s">
+        <v>155</v>
+      </c>
+      <c r="K67" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="F67" s="100"/>
-      <c r="G67" s="129" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="55" t="s">
+      <c r="L67" s="100"/>
+      <c r="M67" s="129" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G68" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="B68" s="52" t="s">
+      <c r="H68" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C68" s="2">
+      <c r="I68" s="2">
         <v>4</v>
       </c>
-      <c r="D68" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="E68" s="19" t="s">
+      <c r="J68" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="K68" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="F68" s="100"/>
-      <c r="G68" s="1"/>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="55" t="s">
+      <c r="L68" s="100"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G69" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="B69" s="52" t="s">
+      <c r="H69" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C69" s="2">
+      <c r="I69" s="2">
         <v>4</v>
       </c>
-      <c r="D69" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="E69" s="19" t="s">
+      <c r="J69" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="K69" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="F69" s="100"/>
-      <c r="G69" s="1"/>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="55" t="s">
+      <c r="L69" s="100"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G70" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="B70" s="52" t="s">
+      <c r="H70" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C70" s="2">
+      <c r="I70" s="2">
         <v>4</v>
       </c>
-      <c r="D70" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="E70" s="19" t="s">
+      <c r="J70" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="K70" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F70" s="100"/>
-      <c r="G70" s="1"/>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71" s="55" t="s">
+      <c r="L70" s="100"/>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G71" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="B71" s="52" t="s">
+      <c r="H71" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C71" s="2">
+      <c r="I71" s="2">
         <v>4</v>
       </c>
-      <c r="D71" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="E71" s="19" t="s">
+      <c r="J71" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="K71" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="F71" s="100"/>
-      <c r="G71" s="1"/>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="55" t="s">
+      <c r="L71" s="100"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G72" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="B72" s="52" t="s">
+      <c r="H72" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C72" s="2">
+      <c r="I72" s="2">
         <v>4</v>
       </c>
-      <c r="D72" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="E72" s="19" t="s">
+      <c r="J72" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="K72" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="F72" s="100"/>
-      <c r="G72" s="1"/>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="A73" s="55" t="s">
+      <c r="L72" s="100"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G73" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="B73" s="52" t="s">
+      <c r="H73" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C73" s="2">
+      <c r="I73" s="2">
         <v>4</v>
       </c>
-      <c r="D73" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="E73" s="19" t="s">
+      <c r="J73" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="K73" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="F73" s="100"/>
-      <c r="G73" s="1"/>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="55" t="s">
+      <c r="L73" s="100"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G74" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="B74" s="52" t="s">
+      <c r="H74" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C74" s="2">
+      <c r="I74" s="2">
         <v>4</v>
       </c>
-      <c r="D74" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="E74" s="25" t="s">
+      <c r="J74" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="K74" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="F74" s="100"/>
-      <c r="G74" s="1"/>
-    </row>
-    <row r="75" spans="1:7">
+      <c r="L74" s="100"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="19"/>
       <c r="B75" s="18"/>
       <c r="C75" s="51"/>
@@ -3650,7 +3654,7 @@
       <c r="F75" s="48"/>
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" s="26" t="s">
         <v>54</v>
       </c>
@@ -3671,7 +3675,7 @@
       </c>
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" s="56" t="s">
         <v>54</v>
       </c>
@@ -3692,7 +3696,7 @@
       </c>
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" s="56" t="s">
         <v>54</v>
       </c>
@@ -3713,7 +3717,7 @@
       </c>
       <c r="G78" s="1"/>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" s="56" t="s">
         <v>54</v>
       </c>
@@ -3734,7 +3738,7 @@
       </c>
       <c r="G79" s="1"/>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" s="56" t="s">
         <v>54</v>
       </c>
@@ -3755,7 +3759,7 @@
       </c>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="56" t="s">
         <v>54</v>
       </c>
@@ -3776,7 +3780,7 @@
       </c>
       <c r="G81" s="1"/>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="56" t="s">
         <v>54</v>
       </c>
@@ -3799,7 +3803,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="56" t="s">
         <v>54</v>
       </c>
@@ -3822,7 +3826,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="56" t="s">
         <v>54</v>
       </c>
@@ -3845,7 +3849,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="56" t="s">
         <v>54</v>
       </c>
@@ -3868,7 +3872,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="19"/>
       <c r="B86" s="18"/>
       <c r="C86" s="51"/>
@@ -3877,7 +3881,7 @@
       <c r="F86" s="29"/>
       <c r="G86" s="1"/>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="20" t="s">
         <v>55</v>
       </c>
@@ -3888,7 +3892,7 @@
         <v>4</v>
       </c>
       <c r="D87" s="96" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E87" s="32" t="s">
         <v>5</v>
@@ -3898,7 +3902,7 @@
       </c>
       <c r="G87" s="1"/>
     </row>
-    <row r="88" spans="1:7" s="46" customFormat="1">
+    <row r="88" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="55" t="s">
         <v>55</v>
       </c>
@@ -3909,7 +3913,7 @@
         <v>4</v>
       </c>
       <c r="D88" s="97" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E88" s="43" t="s">
         <v>6</v>
@@ -3918,7 +3922,7 @@
         <v>-70.778433333333339</v>
       </c>
     </row>
-    <row r="89" spans="1:7" s="46" customFormat="1">
+    <row r="89" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="55" t="s">
         <v>55</v>
       </c>
@@ -3929,7 +3933,7 @@
         <v>4</v>
       </c>
       <c r="D89" s="97" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E89" s="44" t="s">
         <v>94</v>
@@ -3938,7 +3942,7 @@
         <v>1.2722810000000001E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:7" s="46" customFormat="1">
+    <row r="90" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="55" t="s">
         <v>55</v>
       </c>
@@ -3949,7 +3953,7 @@
         <v>4</v>
       </c>
       <c r="D90" s="97" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E90" s="44" t="s">
         <v>95</v>
@@ -3958,7 +3962,7 @@
         <v>2.6976289999999998E-4</v>
       </c>
     </row>
-    <row r="91" spans="1:7" s="46" customFormat="1">
+    <row r="91" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="55" t="s">
         <v>55</v>
       </c>
@@ -3969,7 +3973,7 @@
         <v>4</v>
       </c>
       <c r="D91" s="97" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E91" s="44" t="s">
         <v>96</v>
@@ -3978,7 +3982,7 @@
         <v>-6.9859800000000002E-7</v>
       </c>
     </row>
-    <row r="92" spans="1:7" s="46" customFormat="1">
+    <row r="92" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="55" t="s">
         <v>55</v>
       </c>
@@ -3989,7 +3993,7 @@
         <v>4</v>
       </c>
       <c r="D92" s="97" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E92" s="44" t="s">
         <v>97</v>
@@ -3998,7 +4002,7 @@
         <v>1.637459E-7</v>
       </c>
     </row>
-    <row r="93" spans="1:7" s="46" customFormat="1">
+    <row r="93" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="55" t="s">
         <v>55</v>
       </c>
@@ -4009,7 +4013,7 @@
         <v>4</v>
       </c>
       <c r="D93" s="97" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E93" s="44" t="s">
         <v>98</v>
@@ -4018,7 +4022,7 @@
         <v>-60.193890000000003</v>
       </c>
     </row>
-    <row r="94" spans="1:7" s="46" customFormat="1">
+    <row r="94" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="55" t="s">
         <v>55</v>
       </c>
@@ -4029,7 +4033,7 @@
         <v>4</v>
       </c>
       <c r="D94" s="97" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E94" s="44" t="s">
         <v>99</v>
@@ -4038,7 +4042,7 @@
         <v>53.882710000000003</v>
       </c>
     </row>
-    <row r="95" spans="1:7" s="46" customFormat="1">
+    <row r="95" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="55" t="s">
         <v>55</v>
       </c>
@@ -4049,7 +4053,7 @@
         <v>4</v>
       </c>
       <c r="D95" s="97" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E95" s="47" t="s">
         <v>100</v>
@@ -4058,7 +4062,7 @@
         <v>-0.26460709999999998</v>
       </c>
     </row>
-    <row r="96" spans="1:7" s="46" customFormat="1">
+    <row r="96" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="55" t="s">
         <v>55</v>
       </c>
@@ -4069,7 +4073,7 @@
         <v>4</v>
       </c>
       <c r="D96" s="97" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E96" s="47" t="s">
         <v>101</v>
@@ -4078,7 +4082,7 @@
         <v>525191.4</v>
       </c>
     </row>
-    <row r="97" spans="1:7" s="46" customFormat="1">
+    <row r="97" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="55" t="s">
         <v>55</v>
       </c>
@@ -4089,7 +4093,7 @@
         <v>4</v>
       </c>
       <c r="D97" s="97" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E97" s="47" t="s">
         <v>102</v>
@@ -4098,7 +4102,7 @@
         <v>7.2010540000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:7" s="46" customFormat="1">
+    <row r="98" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="55" t="s">
         <v>55</v>
       </c>
@@ -4109,7 +4113,7 @@
         <v>4</v>
       </c>
       <c r="D98" s="97" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E98" s="47" t="s">
         <v>103</v>
@@ -4118,7 +4122,7 @@
         <v>-0.1738104</v>
       </c>
     </row>
-    <row r="99" spans="1:7" s="46" customFormat="1">
+    <row r="99" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="55" t="s">
         <v>55</v>
       </c>
@@ -4129,7 +4133,7 @@
         <v>4</v>
       </c>
       <c r="D99" s="97" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E99" s="47" t="s">
         <v>104</v>
@@ -4138,7 +4142,7 @@
         <v>25.0425</v>
       </c>
     </row>
-    <row r="100" spans="1:7" s="46" customFormat="1">
+    <row r="100" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="55" t="s">
         <v>55</v>
       </c>
@@ -4149,7 +4153,7 @@
         <v>4</v>
       </c>
       <c r="D100" s="97" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E100" s="47" t="s">
         <v>105</v>
@@ -4158,7 +4162,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="101" spans="1:7" s="46" customFormat="1">
+    <row r="101" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="55" t="s">
         <v>55</v>
       </c>
@@ -4169,7 +4173,7 @@
         <v>4</v>
       </c>
       <c r="D101" s="97" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E101" s="47" t="s">
         <v>106</v>
@@ -4178,7 +4182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:7" s="46" customFormat="1">
+    <row r="102" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="55" t="s">
         <v>55</v>
       </c>
@@ -4189,7 +4193,7 @@
         <v>4</v>
       </c>
       <c r="D102" s="97" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E102" s="47" t="s">
         <v>107</v>
@@ -4198,7 +4202,7 @@
         <v>3.4810920000000002E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:7" s="46" customFormat="1">
+    <row r="103" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="55" t="s">
         <v>55</v>
       </c>
@@ -4209,7 +4213,7 @@
         <v>4</v>
       </c>
       <c r="D103" s="97" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E103" s="47" t="s">
         <v>108</v>
@@ -4218,7 +4222,7 @@
         <v>4.8898240000000003E-4</v>
       </c>
     </row>
-    <row r="104" spans="1:7" s="46" customFormat="1">
+    <row r="104" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="55" t="s">
         <v>55</v>
       </c>
@@ -4229,7 +4233,7 @@
         <v>4</v>
       </c>
       <c r="D104" s="97" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E104" s="47" t="s">
         <v>109</v>
@@ -4238,7 +4242,7 @@
         <v>-5.6532059999999996E-12</v>
       </c>
     </row>
-    <row r="105" spans="1:7" s="46" customFormat="1">
+    <row r="105" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="55" t="s">
         <v>55</v>
       </c>
@@ -4249,7 +4253,7 @@
         <v>4</v>
       </c>
       <c r="D105" s="97" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E105" s="47" t="s">
         <v>110</v>
@@ -4258,7 +4262,7 @@
         <v>-0.97569399999999995</v>
       </c>
     </row>
-    <row r="106" spans="1:7" s="46" customFormat="1">
+    <row r="106" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="55" t="s">
         <v>55</v>
       </c>
@@ -4269,7 +4273,7 @@
         <v>4</v>
       </c>
       <c r="D106" s="97" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E106" s="47" t="s">
         <v>111</v>
@@ -4278,7 +4282,7 @@
         <v>0.1386474</v>
       </c>
     </row>
-    <row r="107" spans="1:7" s="46" customFormat="1">
+    <row r="107" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="55" t="s">
         <v>55</v>
       </c>
@@ -4289,7 +4293,7 @@
         <v>4</v>
       </c>
       <c r="D107" s="97" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E107" s="47" t="s">
         <v>112</v>
@@ -4298,7 +4302,7 @@
         <v>-2.079451E-4</v>
       </c>
     </row>
-    <row r="108" spans="1:7" s="46" customFormat="1">
+    <row r="108" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="55" t="s">
         <v>55</v>
       </c>
@@ -4309,7 +4313,7 @@
         <v>4</v>
       </c>
       <c r="D108" s="97" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E108" s="47" t="s">
         <v>113</v>
@@ -4318,7 +4322,7 @@
         <v>0.34141329999999998</v>
       </c>
     </row>
-    <row r="109" spans="1:7" s="46" customFormat="1">
+    <row r="109" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="55" t="s">
         <v>55</v>
       </c>
@@ -4329,7 +4333,7 @@
         <v>4</v>
       </c>
       <c r="D109" s="97" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E109" s="47" t="s">
         <v>114</v>
@@ -4338,7 +4342,7 @@
         <v>-9.5700000000000003E-8</v>
       </c>
     </row>
-    <row r="110" spans="1:7" s="46" customFormat="1">
+    <row r="110" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="55" t="s">
         <v>55</v>
       </c>
@@ -4349,7 +4353,7 @@
         <v>4</v>
       </c>
       <c r="D110" s="97" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E110" s="47" t="s">
         <v>115</v>
@@ -4358,7 +4362,7 @@
         <v>3.2499999999999998E-6</v>
       </c>
     </row>
-    <row r="111" spans="1:7" s="50" customFormat="1">
+    <row r="111" spans="1:13" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="49"/>
       <c r="B111" s="18"/>
       <c r="C111" s="51"/>
@@ -4366,443 +4370,442 @@
       <c r="E111" s="47"/>
       <c r="F111" s="45"/>
     </row>
-    <row r="112" spans="1:7">
-      <c r="A112" s="20" t="s">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G112" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B112" s="18" t="s">
+      <c r="H112" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="C112" s="51">
+      <c r="I112" s="51">
         <v>4</v>
       </c>
-      <c r="D112" s="96" t="s">
-        <v>156</v>
-      </c>
-      <c r="E112" s="32" t="s">
+      <c r="J112" s="96" t="s">
+        <v>155</v>
+      </c>
+      <c r="K112" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="F112" s="104"/>
-      <c r="G112" s="129" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7">
-      <c r="A113" s="55" t="s">
+      <c r="L112" s="104"/>
+      <c r="M112" s="129" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="113" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G113" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="B113" s="52" t="s">
+      <c r="H113" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C113" s="2">
+      <c r="I113" s="2">
         <v>4</v>
       </c>
-      <c r="D113" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="E113" s="32" t="s">
+      <c r="J113" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="K113" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="F113" s="105"/>
-      <c r="G113" s="1"/>
-    </row>
-    <row r="114" spans="1:7" s="50" customFormat="1">
-      <c r="A114" s="55" t="s">
+      <c r="L113" s="105"/>
+    </row>
+    <row r="114" spans="7:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G114" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="B114" s="52" t="s">
+      <c r="H114" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C114" s="2">
+      <c r="I114" s="2">
         <v>4</v>
       </c>
-      <c r="D114" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="E114" s="43" t="s">
+      <c r="J114" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="K114" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="F114" s="102"/>
-    </row>
-    <row r="115" spans="1:7" s="50" customFormat="1">
-      <c r="A115" s="55" t="s">
+      <c r="L114" s="102"/>
+    </row>
+    <row r="115" spans="7:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G115" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="B115" s="52" t="s">
+      <c r="H115" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C115" s="2">
+      <c r="I115" s="2">
         <v>4</v>
       </c>
-      <c r="D115" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="E115" s="43" t="s">
+      <c r="J115" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="K115" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="F115" s="102"/>
-    </row>
-    <row r="116" spans="1:7" s="50" customFormat="1">
-      <c r="A116" s="55" t="s">
+      <c r="L115" s="102"/>
+    </row>
+    <row r="116" spans="7:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G116" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="B116" s="52" t="s">
+      <c r="H116" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C116" s="2">
+      <c r="I116" s="2">
         <v>4</v>
       </c>
-      <c r="D116" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="E116" s="43" t="s">
+      <c r="J116" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="K116" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="F116" s="102"/>
-    </row>
-    <row r="117" spans="1:7" s="50" customFormat="1">
-      <c r="A117" s="55" t="s">
+      <c r="L116" s="102"/>
+    </row>
+    <row r="117" spans="7:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G117" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="B117" s="52" t="s">
+      <c r="H117" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C117" s="2">
+      <c r="I117" s="2">
         <v>4</v>
       </c>
-      <c r="D117" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="E117" s="43" t="s">
+      <c r="J117" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="K117" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="F117" s="102"/>
-    </row>
-    <row r="118" spans="1:7" s="50" customFormat="1">
-      <c r="A118" s="55" t="s">
+      <c r="L117" s="102"/>
+    </row>
+    <row r="118" spans="7:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G118" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="B118" s="52" t="s">
+      <c r="H118" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C118" s="2">
+      <c r="I118" s="2">
         <v>4</v>
       </c>
-      <c r="D118" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="E118" s="43" t="s">
+      <c r="J118" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="K118" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="F118" s="106"/>
-    </row>
-    <row r="119" spans="1:7" s="50" customFormat="1">
-      <c r="A119" s="55" t="s">
+      <c r="L118" s="106"/>
+    </row>
+    <row r="119" spans="7:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G119" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="B119" s="52" t="s">
+      <c r="H119" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C119" s="2">
+      <c r="I119" s="2">
         <v>4</v>
       </c>
-      <c r="D119" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="E119" s="43" t="s">
+      <c r="J119" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="K119" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="F119" s="102"/>
-    </row>
-    <row r="120" spans="1:7" s="50" customFormat="1">
-      <c r="A120" s="55" t="s">
+      <c r="L119" s="102"/>
+    </row>
+    <row r="120" spans="7:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G120" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="B120" s="52" t="s">
+      <c r="H120" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C120" s="2">
+      <c r="I120" s="2">
         <v>4</v>
       </c>
-      <c r="D120" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="E120" s="48" t="s">
+      <c r="J120" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="K120" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="F120" s="103"/>
-    </row>
-    <row r="121" spans="1:7" s="50" customFormat="1">
-      <c r="A121" s="55" t="s">
+      <c r="L120" s="103"/>
+    </row>
+    <row r="121" spans="7:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G121" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="B121" s="52" t="s">
+      <c r="H121" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C121" s="2">
+      <c r="I121" s="2">
         <v>4</v>
       </c>
-      <c r="D121" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="E121" s="48" t="s">
+      <c r="J121" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="K121" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="F121" s="103"/>
-    </row>
-    <row r="122" spans="1:7" s="50" customFormat="1">
-      <c r="A122" s="55" t="s">
+      <c r="L121" s="103"/>
+    </row>
+    <row r="122" spans="7:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G122" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="B122" s="52" t="s">
+      <c r="H122" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C122" s="2">
+      <c r="I122" s="2">
         <v>4</v>
       </c>
-      <c r="D122" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="E122" s="48" t="s">
+      <c r="J122" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="K122" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="F122" s="103"/>
-    </row>
-    <row r="123" spans="1:7" s="50" customFormat="1">
-      <c r="A123" s="55" t="s">
+      <c r="L122" s="103"/>
+    </row>
+    <row r="123" spans="7:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G123" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="B123" s="52" t="s">
+      <c r="H123" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C123" s="2">
+      <c r="I123" s="2">
         <v>4</v>
       </c>
-      <c r="D123" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="E123" s="48" t="s">
+      <c r="J123" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="K123" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="F123" s="103"/>
-    </row>
-    <row r="124" spans="1:7" s="50" customFormat="1">
-      <c r="A124" s="55" t="s">
+      <c r="L123" s="103"/>
+    </row>
+    <row r="124" spans="7:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G124" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="B124" s="52" t="s">
+      <c r="H124" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C124" s="2">
+      <c r="I124" s="2">
         <v>4</v>
       </c>
-      <c r="D124" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="E124" s="48" t="s">
+      <c r="J124" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="K124" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F124" s="103"/>
-    </row>
-    <row r="125" spans="1:7" s="50" customFormat="1">
-      <c r="A125" s="55" t="s">
+      <c r="L124" s="103"/>
+    </row>
+    <row r="125" spans="7:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G125" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="B125" s="52" t="s">
+      <c r="H125" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C125" s="2">
+      <c r="I125" s="2">
         <v>4</v>
       </c>
-      <c r="D125" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="E125" s="48" t="s">
+      <c r="J125" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="K125" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="F125" s="103"/>
-    </row>
-    <row r="126" spans="1:7" s="50" customFormat="1">
-      <c r="A126" s="55" t="s">
+      <c r="L125" s="103"/>
+    </row>
+    <row r="126" spans="7:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G126" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="B126" s="52" t="s">
+      <c r="H126" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C126" s="2">
+      <c r="I126" s="2">
         <v>4</v>
       </c>
-      <c r="D126" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="E126" s="48" t="s">
+      <c r="J126" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="K126" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="F126" s="103"/>
-    </row>
-    <row r="127" spans="1:7" s="50" customFormat="1">
-      <c r="A127" s="55" t="s">
+      <c r="L126" s="103"/>
+    </row>
+    <row r="127" spans="7:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G127" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="B127" s="52" t="s">
+      <c r="H127" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C127" s="2">
+      <c r="I127" s="2">
         <v>4</v>
       </c>
-      <c r="D127" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="E127" s="48" t="s">
+      <c r="J127" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="K127" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="F127" s="103"/>
-    </row>
-    <row r="128" spans="1:7" s="50" customFormat="1">
-      <c r="A128" s="55" t="s">
+      <c r="L127" s="103"/>
+    </row>
+    <row r="128" spans="7:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G128" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="B128" s="52" t="s">
+      <c r="H128" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C128" s="2">
+      <c r="I128" s="2">
         <v>4</v>
       </c>
-      <c r="D128" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="E128" s="48" t="s">
+      <c r="J128" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="K128" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="F128" s="103"/>
-    </row>
-    <row r="129" spans="1:7" s="50" customFormat="1">
-      <c r="A129" s="55" t="s">
+      <c r="L128" s="103"/>
+    </row>
+    <row r="129" spans="1:13" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G129" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="B129" s="52" t="s">
+      <c r="H129" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C129" s="2">
+      <c r="I129" s="2">
         <v>4</v>
       </c>
-      <c r="D129" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="E129" s="48" t="s">
+      <c r="J129" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="K129" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="F129" s="103"/>
-    </row>
-    <row r="130" spans="1:7" s="50" customFormat="1">
-      <c r="A130" s="55" t="s">
+      <c r="L129" s="103"/>
+    </row>
+    <row r="130" spans="1:13" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G130" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="B130" s="52" t="s">
+      <c r="H130" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C130" s="2">
+      <c r="I130" s="2">
         <v>4</v>
       </c>
-      <c r="D130" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="E130" s="48" t="s">
+      <c r="J130" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="K130" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="F130" s="103"/>
-    </row>
-    <row r="131" spans="1:7" s="50" customFormat="1">
-      <c r="A131" s="55" t="s">
+      <c r="L130" s="103"/>
+    </row>
+    <row r="131" spans="1:13" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G131" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="B131" s="52" t="s">
+      <c r="H131" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C131" s="2">
+      <c r="I131" s="2">
         <v>4</v>
       </c>
-      <c r="D131" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="E131" s="48" t="s">
+      <c r="J131" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="K131" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="F131" s="103"/>
-    </row>
-    <row r="132" spans="1:7" s="50" customFormat="1">
-      <c r="A132" s="55" t="s">
+      <c r="L131" s="103"/>
+    </row>
+    <row r="132" spans="1:13" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G132" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="B132" s="52" t="s">
+      <c r="H132" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C132" s="2">
+      <c r="I132" s="2">
         <v>4</v>
       </c>
-      <c r="D132" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="E132" s="48" t="s">
+      <c r="J132" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="K132" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="F132" s="102"/>
-    </row>
-    <row r="133" spans="1:7" s="50" customFormat="1">
-      <c r="A133" s="55" t="s">
+      <c r="L132" s="102"/>
+    </row>
+    <row r="133" spans="1:13" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G133" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="B133" s="52" t="s">
+      <c r="H133" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C133" s="2">
+      <c r="I133" s="2">
         <v>4</v>
       </c>
-      <c r="D133" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="E133" s="48" t="s">
+      <c r="J133" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="K133" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="F133" s="103"/>
-    </row>
-    <row r="134" spans="1:7" s="50" customFormat="1">
-      <c r="A134" s="55" t="s">
+      <c r="L133" s="103"/>
+    </row>
+    <row r="134" spans="1:13" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G134" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="B134" s="52" t="s">
+      <c r="H134" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C134" s="2">
+      <c r="I134" s="2">
         <v>4</v>
       </c>
-      <c r="D134" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="E134" s="48" t="s">
+      <c r="J134" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="K134" s="48" t="s">
         <v>114</v>
       </c>
-      <c r="F134" s="103"/>
-    </row>
-    <row r="135" spans="1:7" s="50" customFormat="1">
-      <c r="A135" s="55" t="s">
+      <c r="L134" s="103"/>
+    </row>
+    <row r="135" spans="1:13" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G135" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="B135" s="52" t="s">
+      <c r="H135" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C135" s="2">
+      <c r="I135" s="2">
         <v>4</v>
       </c>
-      <c r="D135" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="E135" s="48" t="s">
+      <c r="J135" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="K135" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="F135" s="103"/>
-    </row>
-    <row r="136" spans="1:7">
+      <c r="L135" s="103"/>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136" s="19"/>
       <c r="B136" s="18"/>
       <c r="C136" s="51"/>
@@ -4811,7 +4814,7 @@
       <c r="F136" s="19"/>
       <c r="G136" s="1"/>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137" s="17" t="s">
         <v>57</v>
       </c>
@@ -4832,7 +4835,7 @@
       </c>
       <c r="G137" s="1"/>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138" s="57" t="s">
         <v>57</v>
       </c>
@@ -4853,7 +4856,7 @@
       </c>
       <c r="G138" s="1"/>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A139" s="57" t="s">
         <v>57</v>
       </c>
@@ -4870,11 +4873,11 @@
         <v>11</v>
       </c>
       <c r="F139" s="110" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G139" s="1"/>
     </row>
-    <row r="140" spans="1:7" s="50" customFormat="1">
+    <row r="140" spans="1:13" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="91" t="s">
         <v>57</v>
       </c>
@@ -4892,7 +4895,7 @@
       </c>
       <c r="F140" s="108"/>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A141" s="19"/>
       <c r="B141" s="18"/>
       <c r="C141" s="51"/>
@@ -4901,95 +4904,92 @@
       <c r="F141" s="34"/>
       <c r="G141" s="1"/>
     </row>
-    <row r="142" spans="1:7">
-      <c r="A142" s="17" t="s">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G142" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="B142" s="18" t="s">
+      <c r="H142" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="C142" s="51">
+      <c r="I142" s="51">
         <v>4</v>
       </c>
-      <c r="D142" s="96" t="s">
-        <v>156</v>
-      </c>
-      <c r="E142" s="28" t="s">
+      <c r="J142" s="96" t="s">
+        <v>155</v>
+      </c>
+      <c r="K142" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="F142" s="109"/>
-      <c r="G142" s="129" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7">
-      <c r="A143" s="57" t="s">
+      <c r="L142" s="109"/>
+      <c r="M142" s="129" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G143" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="B143" s="52" t="s">
+      <c r="H143" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C143" s="2">
+      <c r="I143" s="2">
         <v>4</v>
       </c>
-      <c r="D143" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="E143" s="28" t="s">
+      <c r="J143" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="K143" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="F143" s="109"/>
-      <c r="G143" s="1"/>
-    </row>
-    <row r="144" spans="1:7">
-      <c r="A144" s="57" t="s">
+      <c r="L143" s="109"/>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G144" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="B144" s="52" t="s">
+      <c r="H144" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C144" s="2">
+      <c r="I144" s="2">
         <v>4</v>
       </c>
-      <c r="D144" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="E144" s="34" t="s">
+      <c r="J144" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="K144" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="F144" s="110"/>
-      <c r="G144" s="1"/>
-    </row>
-    <row r="145" spans="1:7" s="50" customFormat="1">
-      <c r="A145" s="91" t="s">
+      <c r="L144" s="110"/>
+    </row>
+    <row r="145" spans="1:20" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G145" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="B145" s="92" t="s">
+      <c r="H145" s="92" t="s">
         <v>149</v>
       </c>
-      <c r="C145" s="93">
+      <c r="I145" s="93">
         <v>4</v>
       </c>
-      <c r="D145" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="E145" s="82" t="s">
+      <c r="J145" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="K145" s="82" t="s">
         <v>148</v>
       </c>
-      <c r="F145" s="111"/>
-    </row>
-    <row r="146" spans="1:7">
-      <c r="A146" s="19"/>
-      <c r="B146" s="18"/>
-      <c r="C146" s="51"/>
-      <c r="D146" s="19"/>
-      <c r="E146" s="34"/>
-      <c r="F146" s="33"/>
-      <c r="G146" s="1"/>
-    </row>
-    <row r="147" spans="1:7">
+      <c r="L145" s="111"/>
+    </row>
+    <row r="146" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="G146" s="19"/>
+      <c r="H146" s="18"/>
+      <c r="I146" s="51"/>
+      <c r="J146" s="19"/>
+      <c r="K146" s="34"/>
+      <c r="L146" s="33"/>
+    </row>
+    <row r="147" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A147" s="125" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B147" s="18" t="s">
         <v>149</v>
@@ -5010,9 +5010,9 @@
         <v>138</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A148" s="56" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B148" s="52" t="s">
         <v>149</v>
@@ -5033,9 +5033,9 @@
         <v>138</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A149" s="56" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B149" s="52" t="s">
         <v>149</v>
@@ -5054,9 +5054,9 @@
       </c>
       <c r="G149" s="1"/>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A150" s="56" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B150" s="52" t="s">
         <v>149</v>
@@ -5071,13 +5071,13 @@
         <v>62</v>
       </c>
       <c r="F150" s="120" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G150" s="1"/>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A151" s="56" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B151" s="52" t="s">
         <v>149</v>
@@ -5092,13 +5092,13 @@
         <v>63</v>
       </c>
       <c r="F151" s="120" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G151" s="1"/>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A152" s="56" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B152" s="52" t="s">
         <v>149</v>
@@ -5113,13 +5113,13 @@
         <v>64</v>
       </c>
       <c r="F152" s="120" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G152" s="1"/>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A153" s="56" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B153" s="52" t="s">
         <v>149</v>
@@ -5134,11 +5134,11 @@
         <v>65</v>
       </c>
       <c r="F153" s="120" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G153" s="1"/>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A154" s="19"/>
       <c r="B154" s="18"/>
       <c r="C154" s="51"/>
@@ -5147,9 +5147,9 @@
       <c r="F154" s="19"/>
       <c r="G154" s="1"/>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A155" s="38" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B155" s="18" t="s">
         <v>149</v>
@@ -5158,19 +5158,23 @@
         <v>4</v>
       </c>
       <c r="D155" s="99" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E155" s="21" t="s">
         <v>66</v>
       </c>
       <c r="F155" s="100" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G155" s="1"/>
-    </row>
-    <row r="156" spans="1:7">
+      <c r="Q155" s="46"/>
+      <c r="R155" s="46"/>
+      <c r="S155" s="46"/>
+      <c r="T155" s="46"/>
+    </row>
+    <row r="156" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A156" s="58" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B156" s="52" t="s">
         <v>149</v>
@@ -5185,13 +5189,17 @@
         <v>67</v>
       </c>
       <c r="F156" s="100" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G156" s="1"/>
-    </row>
-    <row r="157" spans="1:7">
+      <c r="Q156" s="46"/>
+      <c r="R156" s="46"/>
+      <c r="S156" s="46"/>
+      <c r="T156" s="46"/>
+    </row>
+    <row r="157" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A157" s="58" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B157" s="52" t="s">
         <v>149</v>
@@ -5206,11 +5214,11 @@
         <v>68</v>
       </c>
       <c r="F157" s="121" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G157" s="1"/>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A158" s="19"/>
       <c r="B158" s="18"/>
       <c r="C158" s="51"/>
@@ -5219,696 +5227,665 @@
       <c r="F158" s="19"/>
       <c r="G158" s="1"/>
     </row>
-    <row r="159" spans="1:7">
-      <c r="A159" s="40" t="s">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="G159" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="B159" s="18" t="s">
+      <c r="H159" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="C159" s="51">
+      <c r="I159" s="51">
         <v>4</v>
       </c>
-      <c r="D159" s="96" t="s">
-        <v>156</v>
-      </c>
-      <c r="E159" s="28" t="s">
+      <c r="J159" s="96" t="s">
+        <v>155</v>
+      </c>
+      <c r="K159" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="F159" s="113"/>
-      <c r="G159" s="129" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7">
-      <c r="A160" s="58" t="s">
+      <c r="L159" s="113"/>
+      <c r="M159" s="129" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="160" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="G160" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="B160" s="52" t="s">
+      <c r="H160" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C160" s="2">
+      <c r="I160" s="2">
         <v>4</v>
       </c>
-      <c r="D160" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="E160" s="28" t="s">
+      <c r="J160" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="K160" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="F160" s="104"/>
-      <c r="G160" s="1"/>
-    </row>
-    <row r="161" spans="1:7">
-      <c r="A161" s="58" t="s">
+      <c r="L160" s="104"/>
+    </row>
+    <row r="161" spans="7:20" x14ac:dyDescent="0.2">
+      <c r="G161" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="B161" s="52" t="s">
+      <c r="H161" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C161" s="2">
+      <c r="I161" s="2">
         <v>4</v>
       </c>
-      <c r="D161" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="E161" s="28" t="s">
+      <c r="J161" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="K161" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="F161" s="105"/>
-      <c r="G161" s="1"/>
-    </row>
-    <row r="162" spans="1:7">
-      <c r="A162" s="58" t="s">
+      <c r="L161" s="105"/>
+    </row>
+    <row r="162" spans="7:20" x14ac:dyDescent="0.2">
+      <c r="G162" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="B162" s="52" t="s">
+      <c r="H162" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C162" s="2">
+      <c r="I162" s="2">
         <v>4</v>
       </c>
-      <c r="D162" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="E162" s="28" t="s">
+      <c r="J162" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="K162" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="F162" s="113"/>
-      <c r="G162" s="1"/>
-    </row>
-    <row r="163" spans="1:7">
-      <c r="A163" s="58" t="s">
+      <c r="L162" s="113"/>
+      <c r="R162" s="50"/>
+      <c r="S162" s="50"/>
+      <c r="T162" s="50"/>
+    </row>
+    <row r="163" spans="7:20" x14ac:dyDescent="0.2">
+      <c r="G163" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="B163" s="52" t="s">
+      <c r="H163" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C163" s="2">
+      <c r="I163" s="2">
         <v>4</v>
       </c>
-      <c r="D163" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="E163" s="28" t="s">
+      <c r="J163" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="K163" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F163" s="113"/>
-      <c r="G163" s="1"/>
-    </row>
-    <row r="164" spans="1:7">
-      <c r="A164" s="58" t="s">
+      <c r="L163" s="113"/>
+    </row>
+    <row r="164" spans="7:20" x14ac:dyDescent="0.2">
+      <c r="G164" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="B164" s="52" t="s">
+      <c r="H164" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C164" s="2">
+      <c r="I164" s="2">
         <v>4</v>
       </c>
-      <c r="D164" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="E164" s="28" t="s">
+      <c r="J164" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="K164" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="F164" s="113"/>
-      <c r="G164" s="1"/>
-    </row>
-    <row r="165" spans="1:7">
-      <c r="A165" s="58" t="s">
+      <c r="L164" s="113"/>
+    </row>
+    <row r="165" spans="7:20" x14ac:dyDescent="0.2">
+      <c r="G165" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="B165" s="52" t="s">
+      <c r="H165" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C165" s="2">
+      <c r="I165" s="2">
         <v>4</v>
       </c>
-      <c r="D165" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="E165" s="28" t="s">
+      <c r="J165" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="K165" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="F165" s="113"/>
-      <c r="G165" s="1"/>
-    </row>
-    <row r="166" spans="1:7">
-      <c r="A166" s="19"/>
-      <c r="B166" s="18"/>
-      <c r="C166" s="51"/>
-      <c r="D166" s="19"/>
-      <c r="E166" s="39"/>
-      <c r="F166" s="19"/>
-      <c r="G166" s="1"/>
-    </row>
-    <row r="167" spans="1:7">
-      <c r="A167" s="40" t="s">
+      <c r="L165" s="113"/>
+    </row>
+    <row r="166" spans="7:20" x14ac:dyDescent="0.2">
+      <c r="G166" s="19"/>
+      <c r="H166" s="18"/>
+      <c r="I166" s="51"/>
+      <c r="J166" s="19"/>
+      <c r="K166" s="39"/>
+      <c r="L166" s="19"/>
+    </row>
+    <row r="167" spans="7:20" x14ac:dyDescent="0.2">
+      <c r="G167" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="B167" s="18" t="s">
+      <c r="H167" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="C167" s="51">
+      <c r="I167" s="51">
         <v>4</v>
       </c>
-      <c r="D167" s="96" t="s">
-        <v>156</v>
-      </c>
-      <c r="E167" s="23" t="s">
+      <c r="J167" s="96" t="s">
+        <v>155</v>
+      </c>
+      <c r="K167" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="F167" s="114"/>
-      <c r="G167" s="129" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7">
-      <c r="A168" s="58" t="s">
+      <c r="L167" s="114"/>
+      <c r="M167" s="129" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="168" spans="7:20" x14ac:dyDescent="0.2">
+      <c r="G168" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="B168" s="52" t="s">
+      <c r="H168" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C168" s="2">
+      <c r="I168" s="2">
         <v>4</v>
       </c>
-      <c r="D168" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="E168" s="23" t="s">
+      <c r="J168" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="K168" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="F168" s="114"/>
-      <c r="G168" s="1"/>
-    </row>
-    <row r="169" spans="1:7">
-      <c r="A169" s="58" t="s">
+      <c r="L168" s="114"/>
+    </row>
+    <row r="169" spans="7:20" x14ac:dyDescent="0.2">
+      <c r="G169" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="B169" s="52" t="s">
+      <c r="H169" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C169" s="2">
+      <c r="I169" s="2">
         <v>4</v>
       </c>
-      <c r="D169" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="E169" s="23" t="s">
+      <c r="J169" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="K169" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="F169" s="114"/>
-      <c r="G169" s="1"/>
-    </row>
-    <row r="170" spans="1:7">
-      <c r="A170" s="58" t="s">
+      <c r="L169" s="114"/>
+    </row>
+    <row r="170" spans="7:20" x14ac:dyDescent="0.2">
+      <c r="G170" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="B170" s="52" t="s">
+      <c r="H170" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C170" s="2">
+      <c r="I170" s="2">
         <v>4</v>
       </c>
-      <c r="D170" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="E170" s="23" t="s">
+      <c r="J170" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="K170" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="F170" s="114"/>
-      <c r="G170" s="1"/>
-    </row>
-    <row r="171" spans="1:7">
-      <c r="A171" s="58" t="s">
+      <c r="L170" s="114"/>
+    </row>
+    <row r="171" spans="7:20" x14ac:dyDescent="0.2">
+      <c r="G171" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="B171" s="52" t="s">
+      <c r="H171" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C171" s="2">
+      <c r="I171" s="2">
         <v>4</v>
       </c>
-      <c r="D171" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="E171" s="23" t="s">
+      <c r="J171" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="K171" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="F171" s="114"/>
-      <c r="G171" s="1"/>
-    </row>
-    <row r="172" spans="1:7">
-      <c r="A172" s="58" t="s">
+      <c r="L171" s="114"/>
+    </row>
+    <row r="172" spans="7:20" x14ac:dyDescent="0.2">
+      <c r="G172" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="B172" s="52" t="s">
+      <c r="H172" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C172" s="2">
+      <c r="I172" s="2">
         <v>4</v>
       </c>
-      <c r="D172" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="E172" s="23" t="s">
+      <c r="J172" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="K172" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="F172" s="77">
+      <c r="L172" s="77">
         <v>0</v>
       </c>
-      <c r="G172" s="1" t="s">
+      <c r="M172" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
-      <c r="A173" s="58" t="s">
+    <row r="173" spans="7:20" x14ac:dyDescent="0.2">
+      <c r="G173" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="B173" s="52" t="s">
+      <c r="H173" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C173" s="2">
+      <c r="I173" s="2">
         <v>4</v>
       </c>
-      <c r="D173" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="E173" s="23" t="s">
+      <c r="J173" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="K173" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="F173" s="114"/>
-      <c r="G173" s="1"/>
-    </row>
-    <row r="174" spans="1:7">
-      <c r="A174" s="58" t="s">
+      <c r="L173" s="114"/>
+    </row>
+    <row r="174" spans="7:20" x14ac:dyDescent="0.2">
+      <c r="G174" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="B174" s="52" t="s">
+      <c r="H174" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C174" s="2">
+      <c r="I174" s="2">
         <v>4</v>
       </c>
-      <c r="D174" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="E174" s="23" t="s">
+      <c r="J174" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="K174" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="F174" s="77">
+      <c r="L174" s="77">
         <v>1</v>
       </c>
-      <c r="G174" s="1" t="s">
+      <c r="M174" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
-      <c r="A175" s="58" t="s">
+    <row r="175" spans="7:20" x14ac:dyDescent="0.2">
+      <c r="G175" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="B175" s="52" t="s">
+      <c r="H175" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C175" s="2">
+      <c r="I175" s="2">
         <v>4</v>
       </c>
-      <c r="D175" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="E175" s="23" t="s">
+      <c r="J175" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="K175" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="F175" s="114"/>
-      <c r="G175" s="1"/>
-    </row>
-    <row r="176" spans="1:7">
-      <c r="A176" s="58" t="s">
+      <c r="L175" s="114"/>
+    </row>
+    <row r="176" spans="7:20" x14ac:dyDescent="0.2">
+      <c r="G176" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="B176" s="52" t="s">
+      <c r="H176" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C176" s="2">
+      <c r="I176" s="2">
         <v>4</v>
       </c>
-      <c r="D176" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="E176" s="23" t="s">
+      <c r="J176" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="K176" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="F176" s="114"/>
-      <c r="G176" s="1"/>
-    </row>
-    <row r="177" spans="1:7">
-      <c r="A177" s="58" t="s">
+      <c r="L176" s="114"/>
+    </row>
+    <row r="177" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G177" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="B177" s="52" t="s">
+      <c r="H177" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C177" s="2">
+      <c r="I177" s="2">
         <v>4</v>
       </c>
-      <c r="D177" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="E177" s="23" t="s">
+      <c r="J177" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="K177" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="F177" s="114"/>
-      <c r="G177" s="1"/>
-    </row>
-    <row r="178" spans="1:7">
-      <c r="A178" s="58" t="s">
+      <c r="L177" s="114"/>
+    </row>
+    <row r="178" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G178" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="B178" s="52" t="s">
+      <c r="H178" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C178" s="2">
+      <c r="I178" s="2">
         <v>4</v>
       </c>
-      <c r="D178" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="E178" s="23" t="s">
+      <c r="J178" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="K178" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="F178" s="114"/>
-      <c r="G178" s="1"/>
-    </row>
-    <row r="179" spans="1:7">
-      <c r="A179" s="58" t="s">
+      <c r="L178" s="114"/>
+    </row>
+    <row r="179" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G179" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="B179" s="52" t="s">
+      <c r="H179" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C179" s="2">
+      <c r="I179" s="2">
         <v>4</v>
       </c>
-      <c r="D179" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="E179" s="23" t="s">
+      <c r="J179" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="K179" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="F179" s="114"/>
-      <c r="G179" s="1"/>
-    </row>
-    <row r="180" spans="1:7">
-      <c r="A180" s="58" t="s">
+      <c r="L179" s="114"/>
+    </row>
+    <row r="180" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G180" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="B180" s="52" t="s">
+      <c r="H180" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C180" s="2">
+      <c r="I180" s="2">
         <v>4</v>
       </c>
-      <c r="D180" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="E180" s="23" t="s">
+      <c r="J180" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="K180" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="F180" s="114"/>
-      <c r="G180" s="1"/>
-    </row>
-    <row r="181" spans="1:7">
-      <c r="A181" s="58" t="s">
+      <c r="L180" s="114"/>
+    </row>
+    <row r="181" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G181" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="B181" s="52" t="s">
+      <c r="H181" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C181" s="2">
+      <c r="I181" s="2">
         <v>4</v>
       </c>
-      <c r="D181" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="E181" s="23" t="s">
+      <c r="J181" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="K181" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="F181" s="114"/>
-      <c r="G181" s="1"/>
-    </row>
-    <row r="182" spans="1:7">
-      <c r="A182" s="58" t="s">
+      <c r="L181" s="114"/>
+    </row>
+    <row r="182" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G182" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="B182" s="52" t="s">
+      <c r="H182" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C182" s="2">
+      <c r="I182" s="2">
         <v>4</v>
       </c>
-      <c r="D182" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="E182" s="35" t="s">
+      <c r="J182" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="K182" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="F182" s="115"/>
-      <c r="G182" s="1"/>
-    </row>
-    <row r="183" spans="1:7" s="50" customFormat="1">
-      <c r="A183" s="58" t="s">
+      <c r="L182" s="115"/>
+    </row>
+    <row r="183" spans="7:13" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G183" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="B183" s="52" t="s">
+      <c r="H183" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C183" s="2">
+      <c r="I183" s="2">
         <v>4</v>
       </c>
-      <c r="D183" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="E183" s="35" t="s">
+      <c r="J183" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="K183" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="F183" s="116"/>
-    </row>
-    <row r="184" spans="1:7" s="50" customFormat="1">
-      <c r="A184" s="58" t="s">
+      <c r="L183" s="116"/>
+    </row>
+    <row r="184" spans="7:13" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G184" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="B184" s="52" t="s">
+      <c r="H184" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C184" s="2">
+      <c r="I184" s="2">
         <v>4</v>
       </c>
-      <c r="D184" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="E184" s="35" t="s">
+      <c r="J184" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="K184" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="F184" s="116"/>
-    </row>
-    <row r="185" spans="1:7">
-      <c r="A185" s="19"/>
-      <c r="B185" s="18"/>
-      <c r="C185" s="51"/>
-      <c r="D185" s="19"/>
-      <c r="E185" s="19"/>
-      <c r="F185" s="19"/>
-      <c r="G185" s="1"/>
-    </row>
-    <row r="186" spans="1:7">
-      <c r="A186" s="40" t="s">
+      <c r="L184" s="116"/>
+    </row>
+    <row r="185" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G185" s="19"/>
+      <c r="H185" s="18"/>
+      <c r="I185" s="51"/>
+      <c r="J185" s="19"/>
+      <c r="K185" s="19"/>
+      <c r="L185" s="19"/>
+    </row>
+    <row r="186" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G186" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="B186" s="18" t="s">
+      <c r="H186" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="C186" s="51">
+      <c r="I186" s="51">
         <v>4</v>
       </c>
-      <c r="D186" s="96" t="s">
-        <v>156</v>
-      </c>
-      <c r="E186" s="27" t="s">
+      <c r="J186" s="96" t="s">
+        <v>155</v>
+      </c>
+      <c r="K186" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="F186" s="117"/>
-      <c r="G186" s="129" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7">
-      <c r="A187" s="58" t="s">
+      <c r="L186" s="117"/>
+      <c r="M186" s="129" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="187" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G187" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="B187" s="52" t="s">
+      <c r="H187" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C187" s="2">
+      <c r="I187" s="2">
         <v>4</v>
       </c>
-      <c r="D187" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="E187" s="27" t="s">
+      <c r="J187" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="K187" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="F187" s="117"/>
-      <c r="G187" s="1"/>
-    </row>
-    <row r="188" spans="1:7">
-      <c r="A188" s="58" t="s">
+      <c r="L187" s="117"/>
+    </row>
+    <row r="188" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G188" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="B188" s="52" t="s">
+      <c r="H188" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C188" s="2">
+      <c r="I188" s="2">
         <v>4</v>
       </c>
-      <c r="D188" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="E188" s="27" t="s">
+      <c r="J188" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="K188" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="F188" s="117"/>
-      <c r="G188" s="1"/>
-    </row>
-    <row r="189" spans="1:7">
-      <c r="A189" s="58" t="s">
+      <c r="L188" s="117"/>
+    </row>
+    <row r="189" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G189" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="B189" s="52" t="s">
+      <c r="H189" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C189" s="2">
+      <c r="I189" s="2">
         <v>4</v>
       </c>
-      <c r="D189" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="E189" s="27" t="s">
+      <c r="J189" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="K189" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="F189" s="117"/>
-      <c r="G189" s="1"/>
-    </row>
-    <row r="190" spans="1:7">
-      <c r="A190" s="58" t="s">
+      <c r="L189" s="117"/>
+    </row>
+    <row r="190" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G190" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="B190" s="52" t="s">
+      <c r="H190" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C190" s="2">
+      <c r="I190" s="2">
         <v>4</v>
       </c>
-      <c r="D190" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="E190" s="27" t="s">
+      <c r="J190" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="K190" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="F190" s="100"/>
-      <c r="G190" s="1"/>
-    </row>
-    <row r="191" spans="1:7">
-      <c r="A191" s="58" t="s">
+      <c r="L190" s="100"/>
+    </row>
+    <row r="191" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G191" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="B191" s="52" t="s">
+      <c r="H191" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C191" s="2">
+      <c r="I191" s="2">
         <v>4</v>
       </c>
-      <c r="D191" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="E191" s="27" t="s">
+      <c r="J191" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="K191" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="F191" s="100"/>
-      <c r="G191" s="1"/>
-    </row>
-    <row r="192" spans="1:7">
-      <c r="A192" s="58" t="s">
+      <c r="L191" s="100"/>
+    </row>
+    <row r="192" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G192" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="B192" s="52" t="s">
+      <c r="H192" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C192" s="2">
+      <c r="I192" s="2">
         <v>4</v>
       </c>
-      <c r="D192" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="E192" s="27" t="s">
+      <c r="J192" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="K192" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="F192" s="100"/>
-      <c r="G192" s="1"/>
-    </row>
-    <row r="193" spans="1:13">
-      <c r="A193" s="58" t="s">
+      <c r="L192" s="100"/>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G193" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="B193" s="52" t="s">
+      <c r="H193" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C193" s="2">
+      <c r="I193" s="2">
         <v>4</v>
       </c>
-      <c r="D193" s="97" t="s">
-        <v>156</v>
-      </c>
-      <c r="E193" s="27" t="s">
+      <c r="J193" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="K193" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="F193" s="100"/>
-      <c r="G193" s="1"/>
-    </row>
-    <row r="194" spans="1:13">
+      <c r="L193" s="100"/>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A194" s="26"/>
       <c r="B194" s="52"/>
       <c r="C194" s="51"/>
       <c r="D194" s="50"/>
       <c r="G194" s="1"/>
     </row>
-    <row r="195" spans="1:13" s="50" customFormat="1">
-      <c r="A195" s="85" t="s">
+    <row r="195" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G195" s="85" t="s">
         <v>146</v>
       </c>
-      <c r="B195" s="90" t="s">
+      <c r="H195" s="90" t="s">
         <v>149</v>
       </c>
-      <c r="C195" s="86">
+      <c r="I195" s="86">
         <v>4</v>
       </c>
-      <c r="D195" s="96" t="s">
-        <v>156</v>
-      </c>
-      <c r="E195" s="82"/>
-      <c r="F195" s="82"/>
-      <c r="G195" s="129" t="s">
-        <v>182</v>
-      </c>
-      <c r="H195" s="79"/>
-      <c r="I195" s="79"/>
-      <c r="J195" s="79"/>
-      <c r="K195" s="79"/>
-      <c r="L195" s="79"/>
-      <c r="M195" s="79"/>
-    </row>
-    <row r="196" spans="1:13" s="50" customFormat="1">
+      <c r="J195" s="96" t="s">
+        <v>155</v>
+      </c>
+      <c r="K195" s="82"/>
+      <c r="L195" s="82"/>
+      <c r="M195" s="129" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A196" s="88"/>
       <c r="B196" s="89"/>
       <c r="C196" s="47"/>
@@ -5921,28 +5898,28 @@
       <c r="L196" s="79"/>
       <c r="M196" s="79"/>
     </row>
-    <row r="197" spans="1:13">
-      <c r="A197" s="84" t="s">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G197" s="84" t="s">
         <v>145</v>
       </c>
-      <c r="B197" s="80" t="s">
+      <c r="H197" s="80" t="s">
         <v>149</v>
       </c>
-      <c r="C197" s="81">
+      <c r="I197" s="81">
         <v>4</v>
       </c>
-      <c r="D197" s="83" t="s">
-        <v>184</v>
-      </c>
-      <c r="E197" s="82"/>
-      <c r="F197" s="81"/>
-      <c r="G197" s="78" t="s">
+      <c r="J197" s="83" t="s">
+        <v>183</v>
+      </c>
+      <c r="K197" s="82"/>
+      <c r="L197" s="81"/>
+      <c r="M197" s="78" t="s">
         <v>147</v>
       </c>
-      <c r="H197" s="50"/>
-      <c r="I197" s="50"/>
-    </row>
-    <row r="198" spans="1:13" s="50" customFormat="1">
+      <c r="N197" s="50"/>
+      <c r="O197" s="50"/>
+    </row>
+    <row r="198" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A198" s="26"/>
       <c r="B198" s="18"/>
       <c r="C198" s="51"/>
@@ -5950,7 +5927,7 @@
       <c r="F198" s="51"/>
       <c r="G198" s="78"/>
     </row>
-    <row r="199" spans="1:13">
+    <row r="199" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A199" s="20" t="s">
         <v>118</v>
       </c>
@@ -5961,49 +5938,48 @@
         <v>4</v>
       </c>
       <c r="D199" s="79" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E199" s="70"/>
       <c r="F199" s="41"/>
       <c r="G199" s="1"/>
     </row>
-    <row r="200" spans="1:13">
-      <c r="A200" s="19" t="s">
+    <row r="200" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="G200" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="B200" s="18" t="s">
+      <c r="H200" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="C200" s="51">
+      <c r="I200" s="51">
         <v>4</v>
       </c>
-      <c r="D200" s="79" t="s">
-        <v>186</v>
-      </c>
-      <c r="E200" s="70"/>
-      <c r="F200" s="41"/>
-      <c r="G200" s="1"/>
-    </row>
-    <row r="201" spans="1:13">
-      <c r="A201" s="19" t="s">
+      <c r="J200" s="79" t="s">
+        <v>185</v>
+      </c>
+      <c r="K200" s="70"/>
+      <c r="L200" s="41"/>
+    </row>
+    <row r="201" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="G201" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="B201" s="18" t="s">
+      <c r="H201" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="C201" s="51">
+      <c r="I201" s="51">
         <v>4</v>
       </c>
-      <c r="D201" s="111" t="s">
-        <v>156</v>
-      </c>
-      <c r="E201" s="70"/>
-      <c r="F201" s="41"/>
-      <c r="G201" s="129" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="202" spans="1:13">
+      <c r="J201" s="111" t="s">
+        <v>155</v>
+      </c>
+      <c r="K201" s="70"/>
+      <c r="L201" s="41"/>
+      <c r="M201" s="129" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A202" s="19"/>
       <c r="B202" s="18"/>
       <c r="C202" s="51"/>
@@ -6012,7 +5988,7 @@
       <c r="F202" s="41"/>
       <c r="G202" s="1"/>
     </row>
-    <row r="203" spans="1:13">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A203" s="20" t="s">
         <v>124</v>
       </c>
@@ -6023,7 +5999,7 @@
         <v>4</v>
       </c>
       <c r="D203" s="79" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E203" s="50"/>
       <c r="F203" s="50"/>
@@ -6032,7 +6008,7 @@
       </c>
       <c r="H203" s="50"/>
     </row>
-    <row r="204" spans="1:13">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A204" s="19" t="s">
         <v>119</v>
       </c>
@@ -6043,7 +6019,7 @@
         <v>4</v>
       </c>
       <c r="D204" s="79" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E204" s="50"/>
       <c r="F204" s="50"/>
@@ -6052,7 +6028,7 @@
       </c>
       <c r="H204" s="50"/>
     </row>
-    <row r="205" spans="1:13">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A205" s="19" t="s">
         <v>120</v>
       </c>
@@ -6063,7 +6039,7 @@
         <v>4</v>
       </c>
       <c r="D205" s="79" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E205" s="50"/>
       <c r="F205" s="50"/>
@@ -6072,589 +6048,586 @@
       </c>
       <c r="H205" s="50"/>
     </row>
-    <row r="206" spans="1:13">
-      <c r="A206" s="19" t="s">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G206" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="B206" s="18" t="s">
+      <c r="H206" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="C206" s="51">
+      <c r="I206" s="51">
         <v>4</v>
       </c>
-      <c r="D206" s="79" t="s">
-        <v>190</v>
-      </c>
-      <c r="E206" s="50"/>
-      <c r="F206" s="50"/>
-      <c r="G206" s="79" t="s">
+      <c r="J206" s="79" t="s">
+        <v>189</v>
+      </c>
+      <c r="K206" s="50"/>
+      <c r="L206" s="50"/>
+      <c r="M206" s="79" t="s">
         <v>144</v>
       </c>
-      <c r="H206" s="50"/>
-    </row>
-    <row r="207" spans="1:13">
-      <c r="A207" s="19" t="s">
+    </row>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G207" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="B207" s="18" t="s">
+      <c r="H207" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="C207" s="51">
+      <c r="I207" s="51">
         <v>4</v>
       </c>
-      <c r="D207" s="96" t="s">
-        <v>156</v>
-      </c>
-      <c r="E207" s="50"/>
-      <c r="F207" s="50"/>
-      <c r="G207" s="129" t="s">
-        <v>182</v>
-      </c>
-      <c r="H207" s="50"/>
-    </row>
-    <row r="208" spans="1:13">
-      <c r="A208" s="19" t="s">
+      <c r="J207" s="96" t="s">
+        <v>155</v>
+      </c>
+      <c r="K207" s="50"/>
+      <c r="L207" s="50"/>
+      <c r="M207" s="129" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G208" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="B208" s="18" t="s">
+      <c r="H208" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="C208" s="51">
+      <c r="I208" s="51">
         <v>4</v>
       </c>
-      <c r="D208" s="96" t="s">
-        <v>156</v>
-      </c>
-      <c r="E208" s="50"/>
-      <c r="F208" s="50"/>
-      <c r="G208" s="129" t="s">
-        <v>182</v>
-      </c>
-      <c r="H208" s="50"/>
-    </row>
-    <row r="209" spans="7:7">
+      <c r="J208" s="96" t="s">
+        <v>155</v>
+      </c>
+      <c r="K208" s="50"/>
+      <c r="L208" s="50"/>
+      <c r="M208" s="129" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="209" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G209" s="1"/>
     </row>
-    <row r="210" spans="7:7">
+    <row r="210" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G210" s="1"/>
     </row>
-    <row r="211" spans="7:7">
+    <row r="211" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G211" s="1"/>
     </row>
-    <row r="212" spans="7:7">
+    <row r="212" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G212" s="1"/>
     </row>
-    <row r="213" spans="7:7">
+    <row r="213" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G213" s="1"/>
     </row>
-    <row r="214" spans="7:7">
+    <row r="214" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G214" s="1"/>
     </row>
-    <row r="215" spans="7:7">
+    <row r="215" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G215" s="1"/>
     </row>
-    <row r="216" spans="7:7">
+    <row r="216" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G216" s="1"/>
     </row>
-    <row r="217" spans="7:7">
+    <row r="217" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G217" s="1"/>
     </row>
-    <row r="218" spans="7:7">
+    <row r="218" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G218" s="1"/>
     </row>
-    <row r="219" spans="7:7">
+    <row r="219" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G219" s="1"/>
     </row>
-    <row r="220" spans="7:7">
+    <row r="220" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G220" s="1"/>
     </row>
-    <row r="221" spans="7:7">
+    <row r="221" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G221" s="1"/>
     </row>
-    <row r="222" spans="7:7">
+    <row r="222" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G222" s="1"/>
     </row>
-    <row r="223" spans="7:7">
+    <row r="223" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G223" s="1"/>
     </row>
-    <row r="224" spans="7:7">
+    <row r="224" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G224" s="1"/>
     </row>
-    <row r="225" spans="7:7">
+    <row r="225" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G225" s="1"/>
     </row>
-    <row r="226" spans="7:7">
+    <row r="226" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G226" s="1"/>
     </row>
-    <row r="227" spans="7:7">
+    <row r="227" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G227" s="1"/>
     </row>
-    <row r="228" spans="7:7">
+    <row r="228" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G228" s="1"/>
     </row>
-    <row r="229" spans="7:7">
+    <row r="229" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G229" s="1"/>
     </row>
-    <row r="230" spans="7:7">
+    <row r="230" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G230" s="1"/>
     </row>
-    <row r="231" spans="7:7">
+    <row r="231" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G231" s="1"/>
     </row>
-    <row r="232" spans="7:7">
+    <row r="232" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G232" s="1"/>
     </row>
-    <row r="233" spans="7:7">
+    <row r="233" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G233" s="1"/>
     </row>
-    <row r="234" spans="7:7">
+    <row r="234" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G234" s="1"/>
     </row>
-    <row r="235" spans="7:7">
+    <row r="235" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G235" s="1"/>
     </row>
-    <row r="236" spans="7:7">
+    <row r="236" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G236" s="1"/>
     </row>
-    <row r="237" spans="7:7">
+    <row r="237" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G237" s="1"/>
     </row>
-    <row r="238" spans="7:7">
+    <row r="238" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G238" s="1"/>
     </row>
-    <row r="239" spans="7:7">
+    <row r="239" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G239" s="1"/>
     </row>
-    <row r="240" spans="7:7">
+    <row r="240" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G240" s="1"/>
     </row>
-    <row r="241" spans="7:7">
+    <row r="241" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G241" s="1"/>
     </row>
-    <row r="242" spans="7:7">
+    <row r="242" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G242" s="1"/>
     </row>
-    <row r="243" spans="7:7">
+    <row r="243" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G243" s="1"/>
     </row>
-    <row r="244" spans="7:7">
+    <row r="244" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G244" s="1"/>
     </row>
-    <row r="245" spans="7:7">
+    <row r="245" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G245" s="1"/>
     </row>
-    <row r="246" spans="7:7">
+    <row r="246" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G246" s="1"/>
     </row>
-    <row r="247" spans="7:7">
+    <row r="247" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G247" s="1"/>
     </row>
-    <row r="248" spans="7:7">
+    <row r="248" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G248" s="1"/>
     </row>
-    <row r="249" spans="7:7">
+    <row r="249" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G249" s="1"/>
     </row>
-    <row r="250" spans="7:7">
+    <row r="250" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G250" s="1"/>
     </row>
-    <row r="251" spans="7:7">
+    <row r="251" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G251" s="1"/>
     </row>
-    <row r="252" spans="7:7">
+    <row r="252" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G252" s="1"/>
     </row>
-    <row r="253" spans="7:7">
+    <row r="253" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G253" s="1"/>
     </row>
-    <row r="254" spans="7:7">
+    <row r="254" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G254" s="1"/>
     </row>
-    <row r="255" spans="7:7">
+    <row r="255" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G255" s="1"/>
     </row>
-    <row r="256" spans="7:7">
+    <row r="256" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G256" s="1"/>
     </row>
-    <row r="257" spans="7:7">
+    <row r="257" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G257" s="1"/>
     </row>
-    <row r="258" spans="7:7">
+    <row r="258" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G258" s="1"/>
     </row>
-    <row r="259" spans="7:7">
+    <row r="259" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G259" s="1"/>
     </row>
-    <row r="260" spans="7:7">
+    <row r="260" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G260" s="1"/>
     </row>
-    <row r="261" spans="7:7">
+    <row r="261" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G261" s="1"/>
     </row>
-    <row r="262" spans="7:7">
+    <row r="262" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G262" s="1"/>
     </row>
-    <row r="263" spans="7:7">
+    <row r="263" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G263" s="1"/>
     </row>
-    <row r="264" spans="7:7">
+    <row r="264" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G264" s="1"/>
     </row>
-    <row r="265" spans="7:7">
+    <row r="265" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G265" s="1"/>
     </row>
-    <row r="266" spans="7:7">
+    <row r="266" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G266" s="1"/>
     </row>
-    <row r="267" spans="7:7">
+    <row r="267" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G267" s="1"/>
     </row>
-    <row r="268" spans="7:7">
+    <row r="268" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G268" s="1"/>
     </row>
-    <row r="269" spans="7:7">
+    <row r="269" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G269" s="1"/>
     </row>
-    <row r="270" spans="7:7">
+    <row r="270" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G270" s="1"/>
     </row>
-    <row r="271" spans="7:7">
+    <row r="271" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G271" s="1"/>
     </row>
-    <row r="272" spans="7:7">
+    <row r="272" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G272" s="1"/>
     </row>
-    <row r="273" spans="7:7">
+    <row r="273" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G273" s="1"/>
     </row>
-    <row r="274" spans="7:7">
+    <row r="274" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G274" s="1"/>
     </row>
-    <row r="275" spans="7:7">
+    <row r="275" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G275" s="1"/>
     </row>
-    <row r="276" spans="7:7">
+    <row r="276" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G276" s="1"/>
     </row>
-    <row r="277" spans="7:7">
+    <row r="277" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G277" s="1"/>
     </row>
-    <row r="278" spans="7:7">
+    <row r="278" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G278" s="1"/>
     </row>
-    <row r="279" spans="7:7">
+    <row r="279" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G279" s="1"/>
     </row>
-    <row r="280" spans="7:7">
+    <row r="280" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G280" s="1"/>
     </row>
-    <row r="281" spans="7:7">
+    <row r="281" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G281" s="1"/>
     </row>
-    <row r="282" spans="7:7">
+    <row r="282" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G282" s="1"/>
     </row>
-    <row r="283" spans="7:7">
+    <row r="283" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G283" s="1"/>
     </row>
-    <row r="284" spans="7:7">
+    <row r="284" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G284" s="1"/>
     </row>
-    <row r="285" spans="7:7">
+    <row r="285" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G285" s="1"/>
     </row>
-    <row r="286" spans="7:7">
+    <row r="286" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G286" s="1"/>
     </row>
-    <row r="287" spans="7:7">
+    <row r="287" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G287" s="1"/>
     </row>
-    <row r="288" spans="7:7">
+    <row r="288" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G288" s="1"/>
     </row>
-    <row r="289" spans="7:7">
+    <row r="289" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G289" s="1"/>
     </row>
-    <row r="290" spans="7:7">
+    <row r="290" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G290" s="1"/>
     </row>
-    <row r="291" spans="7:7">
+    <row r="291" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G291" s="1"/>
     </row>
-    <row r="292" spans="7:7">
+    <row r="292" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G292" s="1"/>
     </row>
-    <row r="293" spans="7:7">
+    <row r="293" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G293" s="1"/>
     </row>
-    <row r="294" spans="7:7">
+    <row r="294" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G294" s="1"/>
     </row>
-    <row r="295" spans="7:7">
+    <row r="295" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G295" s="1"/>
     </row>
-    <row r="296" spans="7:7">
+    <row r="296" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G296" s="1"/>
     </row>
-    <row r="297" spans="7:7">
+    <row r="297" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G297" s="1"/>
     </row>
-    <row r="298" spans="7:7">
+    <row r="298" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G298" s="1"/>
     </row>
-    <row r="299" spans="7:7">
+    <row r="299" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G299" s="1"/>
     </row>
-    <row r="300" spans="7:7">
+    <row r="300" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G300" s="1"/>
     </row>
-    <row r="301" spans="7:7">
+    <row r="301" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G301" s="1"/>
     </row>
-    <row r="302" spans="7:7">
+    <row r="302" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G302" s="1"/>
     </row>
-    <row r="303" spans="7:7">
+    <row r="303" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G303" s="1"/>
     </row>
-    <row r="304" spans="7:7">
+    <row r="304" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G304" s="1"/>
     </row>
-    <row r="305" spans="7:7">
+    <row r="305" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G305" s="1"/>
     </row>
-    <row r="306" spans="7:7">
+    <row r="306" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G306" s="1"/>
     </row>
-    <row r="307" spans="7:7">
+    <row r="307" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G307" s="1"/>
     </row>
-    <row r="308" spans="7:7">
+    <row r="308" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G308" s="1"/>
     </row>
-    <row r="309" spans="7:7">
+    <row r="309" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G309" s="1"/>
     </row>
-    <row r="310" spans="7:7">
+    <row r="310" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G310" s="1"/>
     </row>
-    <row r="311" spans="7:7">
+    <row r="311" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G311" s="1"/>
     </row>
-    <row r="312" spans="7:7">
+    <row r="312" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G312" s="1"/>
     </row>
-    <row r="313" spans="7:7">
+    <row r="313" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G313" s="1"/>
     </row>
-    <row r="314" spans="7:7">
+    <row r="314" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G314" s="1"/>
     </row>
-    <row r="315" spans="7:7">
+    <row r="315" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G315" s="1"/>
     </row>
-    <row r="316" spans="7:7">
+    <row r="316" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G316" s="1"/>
     </row>
-    <row r="317" spans="7:7">
+    <row r="317" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G317" s="1"/>
     </row>
-    <row r="318" spans="7:7">
+    <row r="318" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G318" s="1"/>
     </row>
-    <row r="319" spans="7:7">
+    <row r="319" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G319" s="1"/>
     </row>
-    <row r="320" spans="7:7">
+    <row r="320" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G320" s="1"/>
     </row>
-    <row r="321" spans="7:7">
+    <row r="321" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G321" s="1"/>
     </row>
-    <row r="322" spans="7:7">
+    <row r="322" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G322" s="1"/>
     </row>
-    <row r="323" spans="7:7">
+    <row r="323" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G323" s="1"/>
     </row>
-    <row r="324" spans="7:7">
+    <row r="324" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G324" s="1"/>
     </row>
-    <row r="325" spans="7:7">
+    <row r="325" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G325" s="1"/>
     </row>
-    <row r="326" spans="7:7">
+    <row r="326" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G326" s="1"/>
     </row>
-    <row r="327" spans="7:7">
+    <row r="327" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G327" s="1"/>
     </row>
-    <row r="328" spans="7:7">
+    <row r="328" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G328" s="1"/>
     </row>
-    <row r="329" spans="7:7">
+    <row r="329" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G329" s="1"/>
     </row>
-    <row r="330" spans="7:7">
+    <row r="330" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G330" s="1"/>
     </row>
-    <row r="331" spans="7:7">
+    <row r="331" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G331" s="1"/>
     </row>
-    <row r="332" spans="7:7">
+    <row r="332" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G332" s="1"/>
     </row>
-    <row r="333" spans="7:7">
+    <row r="333" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G333" s="1"/>
     </row>
-    <row r="334" spans="7:7">
+    <row r="334" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G334" s="1"/>
     </row>
-    <row r="335" spans="7:7">
+    <row r="335" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G335" s="1"/>
     </row>
-    <row r="336" spans="7:7">
+    <row r="336" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G336" s="1"/>
     </row>
-    <row r="337" spans="7:7">
+    <row r="337" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G337" s="1"/>
     </row>
-    <row r="338" spans="7:7">
+    <row r="338" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G338" s="1"/>
     </row>
-    <row r="339" spans="7:7">
+    <row r="339" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G339" s="1"/>
     </row>
-    <row r="340" spans="7:7">
+    <row r="340" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G340" s="1"/>
     </row>
-    <row r="341" spans="7:7">
+    <row r="341" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G341" s="1"/>
     </row>
-    <row r="342" spans="7:7">
+    <row r="342" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G342" s="1"/>
     </row>
-    <row r="343" spans="7:7">
+    <row r="343" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G343" s="1"/>
     </row>
-    <row r="344" spans="7:7">
+    <row r="344" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G344" s="1"/>
     </row>
-    <row r="345" spans="7:7">
+    <row r="345" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G345" s="1"/>
     </row>
-    <row r="346" spans="7:7">
+    <row r="346" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G346" s="1"/>
     </row>
-    <row r="347" spans="7:7">
+    <row r="347" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G347" s="1"/>
     </row>
-    <row r="348" spans="7:7">
+    <row r="348" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G348" s="1"/>
     </row>
-    <row r="349" spans="7:7">
+    <row r="349" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G349" s="1"/>
     </row>
-    <row r="350" spans="7:7">
+    <row r="350" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G350" s="1"/>
     </row>
-    <row r="351" spans="7:7">
+    <row r="351" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G351" s="1"/>
     </row>
-    <row r="352" spans="7:7">
+    <row r="352" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G352" s="1"/>
     </row>
-    <row r="353" spans="7:7">
+    <row r="353" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G353" s="1"/>
     </row>
-    <row r="354" spans="7:7">
+    <row r="354" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G354" s="1"/>
     </row>
-    <row r="355" spans="7:7">
+    <row r="355" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G355" s="1"/>
     </row>
-    <row r="356" spans="7:7">
+    <row r="356" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G356" s="1"/>
     </row>
-    <row r="357" spans="7:7">
+    <row r="357" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G357" s="1"/>
     </row>
-    <row r="358" spans="7:7">
+    <row r="358" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G358" s="1"/>
     </row>
-    <row r="359" spans="7:7">
+    <row r="359" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G359" s="1"/>
     </row>
-    <row r="360" spans="7:7">
+    <row r="360" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G360" s="1"/>
     </row>
-    <row r="361" spans="7:7">
+    <row r="361" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G361" s="1"/>
     </row>
-    <row r="362" spans="7:7">
+    <row r="362" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G362" s="1"/>
     </row>
-    <row r="363" spans="7:7">
+    <row r="363" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G363" s="1"/>
     </row>
-    <row r="364" spans="7:7">
+    <row r="364" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G364" s="1"/>
     </row>
-    <row r="365" spans="7:7">
+    <row r="365" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G365" s="1"/>
     </row>
-    <row r="366" spans="7:7">
+    <row r="366" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G366" s="1"/>
     </row>
-    <row r="367" spans="7:7">
+    <row r="367" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G367" s="1"/>
     </row>
-    <row r="368" spans="7:7">
+    <row r="368" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G368" s="1"/>
     </row>
-    <row r="369" spans="7:7">
+    <row r="369" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G369" s="1"/>
     </row>
-    <row r="370" spans="7:7">
+    <row r="370" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G370" s="1"/>
     </row>
-    <row r="371" spans="7:7">
+    <row r="371" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G371" s="1"/>
     </row>
-    <row r="372" spans="7:7">
+    <row r="372" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G372" s="1"/>
     </row>
-    <row r="373" spans="7:7">
+    <row r="373" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G373" s="1"/>
     </row>
-    <row r="374" spans="7:7">
+    <row r="374" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G374" s="1"/>
     </row>
-    <row r="375" spans="7:7">
+    <row r="375" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G375" s="1"/>
     </row>
-    <row r="376" spans="7:7">
+    <row r="376" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G376" s="1"/>
     </row>
-    <row r="377" spans="7:7">
+    <row r="377" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G377" s="1"/>
     </row>
-    <row r="378" spans="7:7">
+    <row r="378" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G378" s="1"/>
     </row>
-    <row r="379" spans="7:7">
+    <row r="379" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G379" s="1"/>
     </row>
-    <row r="380" spans="7:7">
+    <row r="380" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G380" s="1"/>
     </row>
-    <row r="381" spans="7:7">
+    <row r="381" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G381" s="1"/>
     </row>
-    <row r="382" spans="7:7">
+    <row r="382" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G382" s="1"/>
     </row>
-    <row r="383" spans="7:7">
+    <row r="383" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G383" s="1"/>
     </row>
   </sheetData>
@@ -6676,12 +6649,12 @@
       <selection activeCell="R69" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.83203125" style="118"/>
+    <col min="1" max="16384" width="8.85546875" style="118"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="118">
         <v>-0.102899</v>
       </c>
@@ -6794,7 +6767,7 @@
         <v>4.7835000000000003E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="118">
         <v>-9.2008999999999994E-2</v>
       </c>
@@ -6907,7 +6880,7 @@
         <v>3.9530999999999997E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="118">
         <v>-7.9813999999999996E-2</v>
       </c>
@@ -7020,7 +6993,7 @@
         <v>3.2724000000000003E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="118">
         <v>-6.7954000000000001E-2</v>
       </c>
@@ -7133,7 +7106,7 @@
         <v>2.6221999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="118">
         <v>-6.1304999999999998E-2</v>
       </c>
@@ -7246,7 +7219,7 @@
         <v>2.1964000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="118">
         <v>-5.5215E-2</v>
       </c>
@@ -7359,7 +7332,7 @@
         <v>1.8523999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="118">
         <v>-5.0608E-2</v>
       </c>
@@ -7472,7 +7445,7 @@
         <v>1.6164999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="118">
         <v>-4.7326E-2</v>
       </c>
@@ -7585,7 +7558,7 @@
         <v>1.4739E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:37">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="118">
         <v>-4.3756999999999997E-2</v>
       </c>
@@ -7698,7 +7671,7 @@
         <v>1.3438E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:37">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="118">
         <v>-3.9752000000000003E-2</v>
       </c>
@@ -7811,7 +7784,7 @@
         <v>1.2238000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:37">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="118">
         <v>-3.6818999999999998E-2</v>
       </c>
@@ -7924,7 +7897,7 @@
         <v>1.142E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:37">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="118">
         <v>-3.4412999999999999E-2</v>
       </c>
@@ -8037,7 +8010,7 @@
         <v>1.0888999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:37">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="118">
         <v>-3.1092000000000002E-2</v>
       </c>
@@ -8150,7 +8123,7 @@
         <v>1.0203E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:37">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="118">
         <v>-2.8393000000000002E-2</v>
       </c>
@@ -8263,7 +8236,7 @@
         <v>9.6659999999999992E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:37">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="118">
         <v>-2.5759000000000001E-2</v>
       </c>
@@ -8376,7 +8349,7 @@
         <v>9.2280000000000001E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:37">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="118">
         <v>-2.3243E-2</v>
       </c>
@@ -8489,7 +8462,7 @@
         <v>8.7810000000000006E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:37">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="118">
         <v>-2.1659000000000001E-2</v>
       </c>
@@ -8602,7 +8575,7 @@
         <v>8.4130000000000003E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:37">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="118">
         <v>-2.0065E-2</v>
       </c>
@@ -8715,7 +8688,7 @@
         <v>8.1679999999999999E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:37">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" s="118">
         <v>-1.8825999999999999E-2</v>
       </c>
@@ -8828,7 +8801,7 @@
         <v>7.8960000000000002E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:37">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" s="118">
         <v>-1.8134000000000001E-2</v>
       </c>
@@ -8941,7 +8914,7 @@
         <v>7.6779999999999999E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:37">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" s="118">
         <v>-1.721E-2</v>
       </c>
@@ -9054,7 +9027,7 @@
         <v>7.476E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:37">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="118">
         <v>-1.6492E-2</v>
       </c>
@@ -9167,7 +9140,7 @@
         <v>7.2880000000000002E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:37">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="118">
         <v>-1.5685999999999999E-2</v>
       </c>
@@ -9280,7 +9253,7 @@
         <v>7.1419999999999999E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:37">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="118">
         <v>-1.5132E-2</v>
       </c>
@@ -9393,7 +9366,7 @@
         <v>6.9940000000000002E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:37">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" s="118">
         <v>-1.4701000000000001E-2</v>
       </c>
@@ -9506,7 +9479,7 @@
         <v>6.9109999999999996E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:37">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="118">
         <v>-1.4076999999999999E-2</v>
       </c>
@@ -9619,7 +9592,7 @@
         <v>6.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:37">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" s="118">
         <v>-1.3455999999999999E-2</v>
       </c>
@@ -9732,7 +9705,7 @@
         <v>6.7759999999999999E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:37">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" s="118">
         <v>-1.311E-2</v>
       </c>
@@ -9845,7 +9818,7 @@
         <v>6.711E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:37">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="118">
         <v>-1.2841999999999999E-2</v>
       </c>
@@ -9958,7 +9931,7 @@
         <v>6.6509999999999998E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:37">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" s="118">
         <v>-1.2413E-2</v>
       </c>
@@ -10071,7 +10044,7 @@
         <v>6.6119999999999998E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:37">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" s="118">
         <v>-1.2324E-2</v>
       </c>
@@ -10184,7 +10157,7 @@
         <v>6.5160000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:37">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" s="118">
         <v>-1.2546E-2</v>
       </c>
@@ -10297,7 +10270,7 @@
         <v>6.4590000000000003E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:37">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33" s="118">
         <v>-1.2839E-2</v>
       </c>
@@ -10410,7 +10383,7 @@
         <v>6.3359999999999996E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:37">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34" s="118">
         <v>-1.2834E-2</v>
       </c>
@@ -10523,7 +10496,7 @@
         <v>6.1939999999999999E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:37">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35" s="118">
         <v>-1.2711E-2</v>
       </c>
@@ -10636,7 +10609,7 @@
         <v>6.0239999999999998E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:37">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36" s="118">
         <v>-1.2652999999999999E-2</v>
       </c>
@@ -10749,7 +10722,7 @@
         <v>5.7939999999999997E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:37">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37" s="118">
         <v>-1.2411E-2</v>
       </c>
@@ -10862,7 +10835,7 @@
         <v>5.5750000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:37">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38" s="118">
         <v>-1.2128999999999999E-2</v>
       </c>
@@ -10975,7 +10948,7 @@
         <v>5.3619999999999996E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:37">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A39" s="118">
         <v>-1.1508000000000001E-2</v>
       </c>
@@ -11088,7 +11061,7 @@
         <v>5.0720000000000001E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:37">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A40" s="118">
         <v>-1.1006999999999999E-2</v>
       </c>
@@ -11201,7 +11174,7 @@
         <v>4.8349999999999999E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:37">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A41" s="118">
         <v>-1.0260999999999999E-2</v>
       </c>
@@ -11314,7 +11287,7 @@
         <v>4.5909999999999996E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:37">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A42" s="118">
         <v>-9.6329999999999992E-3</v>
       </c>
@@ -11427,7 +11400,7 @@
         <v>4.2880000000000001E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:37">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A43" s="118">
         <v>-6.2719999999999998E-3</v>
       </c>
@@ -11540,7 +11513,7 @@
         <v>3.4619999999999998E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:37">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A44" s="118">
         <v>-6.1310000000000002E-3</v>
       </c>
@@ -11653,7 +11626,7 @@
         <v>2.954E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:37">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A45" s="118">
         <v>-6.0780000000000001E-3</v>
       </c>
@@ -11766,7 +11739,7 @@
         <v>2.5560000000000001E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:37">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A46" s="118">
         <v>-6.0359999999999997E-3</v>
       </c>
@@ -11879,7 +11852,7 @@
         <v>2.1900000000000001E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:37">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A47" s="118">
         <v>-6.0520000000000001E-3</v>
       </c>
@@ -11992,7 +11965,7 @@
         <v>1.949E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:37">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A48" s="118">
         <v>-6.1879999999999999E-3</v>
       </c>
@@ -12105,7 +12078,7 @@
         <v>1.7060000000000001E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:37">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A49" s="118">
         <v>-6.0670000000000003E-3</v>
       </c>
@@ -12218,7 +12191,7 @@
         <v>1.601E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:37">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A50" s="118">
         <v>-6.2570000000000004E-3</v>
       </c>
@@ -12331,7 +12304,7 @@
         <v>1.523E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:37">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A51" s="118">
         <v>-6.3619999999999996E-3</v>
       </c>
@@ -12444,7 +12417,7 @@
         <v>1.4580000000000001E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:37">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A52" s="118">
         <v>-6.1390000000000004E-3</v>
       </c>
@@ -12557,7 +12530,7 @@
         <v>1.526E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:37">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A53" s="118">
         <v>-6.3169999999999997E-3</v>
       </c>
@@ -12670,7 +12643,7 @@
         <v>1.604E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:37">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A54" s="118">
         <v>-6.2379999999999996E-3</v>
       </c>
@@ -12783,7 +12756,7 @@
         <v>1.6559999999999999E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:37">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A55" s="118">
         <v>-6.2310000000000004E-3</v>
       </c>
@@ -12896,7 +12869,7 @@
         <v>1.787E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:37">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A56" s="118">
         <v>-6.3379999999999999E-3</v>
       </c>
@@ -13009,7 +12982,7 @@
         <v>1.8400000000000001E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:37">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A57" s="118">
         <v>-6.2969999999999996E-3</v>
       </c>
@@ -13122,7 +13095,7 @@
         <v>1.952E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:37">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A58" s="118">
         <v>-6.1679999999999999E-3</v>
       </c>
@@ -13235,7 +13208,7 @@
         <v>2.1189999999999998E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:37">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A59" s="118">
         <v>-6.3819999999999997E-3</v>
       </c>
@@ -13348,7 +13321,7 @@
         <v>2.186E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:37">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A60" s="118">
         <v>-6.4989999999999996E-3</v>
       </c>
@@ -13461,7 +13434,7 @@
         <v>2.313E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:37">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A61" s="118">
         <v>-6.5680000000000001E-3</v>
       </c>
@@ -13574,7 +13547,7 @@
         <v>2.4260000000000002E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:37">
+    <row r="62" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A62" s="118">
         <v>-6.5700000000000003E-3</v>
       </c>
@@ -13687,7 +13660,7 @@
         <v>2.539E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:37">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A63" s="118">
         <v>-6.4590000000000003E-3</v>
       </c>
@@ -13800,7 +13773,7 @@
         <v>2.5969999999999999E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:37">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A64" s="118">
         <v>-6.4390000000000003E-3</v>
       </c>
@@ -13913,7 +13886,7 @@
         <v>2.7750000000000001E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:37">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A65" s="118">
         <v>-6.7149999999999996E-3</v>
       </c>
@@ -14026,7 +13999,7 @@
         <v>2.921E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:37">
+    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A66" s="118">
         <v>-6.7669999999999996E-3</v>
       </c>
@@ -14139,7 +14112,7 @@
         <v>3.0200000000000001E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:37">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A67" s="118">
         <v>-6.8799999999999998E-3</v>
       </c>
@@ -14252,7 +14225,7 @@
         <v>3.2000000000000002E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:37">
+    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A68" s="118">
         <v>-6.6959999999999997E-3</v>
       </c>
@@ -14365,7 +14338,7 @@
         <v>3.3240000000000001E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:37">
+    <row r="69" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A69" s="118">
         <v>-6.7229999999999998E-3</v>
       </c>
@@ -14478,7 +14451,7 @@
         <v>3.3570000000000002E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:37">
+    <row r="70" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A70" s="118">
         <v>-6.3749999999999996E-3</v>
       </c>
@@ -14591,7 +14564,7 @@
         <v>3.4380000000000001E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:37">
+    <row r="71" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A71" s="118">
         <v>-6.6249999999999998E-3</v>
       </c>
@@ -14704,7 +14677,7 @@
         <v>3.4480000000000001E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:37">
+    <row r="72" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A72" s="118">
         <v>-6.1219999999999998E-3</v>
       </c>
@@ -14817,7 +14790,7 @@
         <v>3.444E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:37">
+    <row r="73" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A73" s="118">
         <v>-5.9829999999999996E-3</v>
       </c>
@@ -14930,7 +14903,7 @@
         <v>3.4889999999999999E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:37">
+    <row r="74" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A74" s="118">
         <v>-6.0089999999999996E-3</v>
       </c>
@@ -15043,7 +15016,7 @@
         <v>3.3140000000000001E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:37">
+    <row r="75" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A75" s="118">
         <v>-5.5570000000000003E-3</v>
       </c>
@@ -15156,7 +15129,7 @@
         <v>3.3110000000000001E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:37">
+    <row r="76" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A76" s="118">
         <v>-5.7099999999999998E-3</v>
       </c>
@@ -15269,7 +15242,7 @@
         <v>3.2759999999999998E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:37">
+    <row r="77" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A77" s="118">
         <v>-5.7060000000000001E-3</v>
       </c>
@@ -15382,7 +15355,7 @@
         <v>3.1220000000000002E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:37">
+    <row r="78" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A78" s="118">
         <v>-5.5230000000000001E-3</v>
       </c>
@@ -15495,7 +15468,7 @@
         <v>2.993E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:37">
+    <row r="79" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A79" s="118">
         <v>-5.4010000000000004E-3</v>
       </c>
@@ -15608,7 +15581,7 @@
         <v>3.0300000000000001E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:37">
+    <row r="80" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A80" s="118">
         <v>-5.8849999999999996E-3</v>
       </c>
@@ -15721,7 +15694,7 @@
         <v>3.0560000000000001E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:37">
+    <row r="81" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A81" s="118">
         <v>-5.5620000000000001E-3</v>
       </c>
@@ -15834,7 +15807,7 @@
         <v>3.0230000000000001E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:37">
+    <row r="82" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A82" s="118">
         <v>-5.6230000000000004E-3</v>
       </c>
@@ -15947,7 +15920,7 @@
         <v>2.9949999999999998E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:37">
+    <row r="83" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A83" s="118">
         <v>-5.594E-3</v>
       </c>
@@ -16078,12 +16051,12 @@
       <selection activeCell="AK83" sqref="AK83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.83203125" style="118"/>
+    <col min="1" max="16384" width="8.85546875" style="118"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="118">
         <v>1.7951000000000002E-2</v>
       </c>
@@ -16196,7 +16169,7 @@
         <v>-1.6435000000000002E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="118">
         <v>1.2437E-2</v>
       </c>
@@ -16309,7 +16282,7 @@
         <v>-1.3527000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="118">
         <v>5.5900000000000004E-3</v>
       </c>
@@ -16422,7 +16395,7 @@
         <v>-1.1609E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="118">
         <v>2.441E-3</v>
       </c>
@@ -16535,7 +16508,7 @@
         <v>-9.3799999999999994E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="118">
         <v>3.0769999999999999E-3</v>
       </c>
@@ -16648,7 +16621,7 @@
         <v>-7.8279999999999999E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="118">
         <v>-1.7229999999999999E-3</v>
       </c>
@@ -16761,7 +16734,7 @@
         <v>-7.2960000000000004E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="118">
         <v>-1.639E-3</v>
       </c>
@@ -16874,7 +16847,7 @@
         <v>-5.6899999999999997E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="118">
         <v>-3.9490000000000003E-3</v>
       </c>
@@ -16987,7 +16960,7 @@
         <v>-5.0899999999999999E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:37">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="118">
         <v>-5.091E-3</v>
       </c>
@@ -17100,7 +17073,7 @@
         <v>-4.3169999999999997E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:37">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="118">
         <v>-6.2509999999999996E-3</v>
       </c>
@@ -17213,7 +17186,7 @@
         <v>-3.8920000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:37">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="118">
         <v>-7.6689999999999996E-3</v>
       </c>
@@ -17326,7 +17299,7 @@
         <v>-3.3760000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:37">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="118">
         <v>-7.5690000000000002E-3</v>
       </c>
@@ -17439,7 +17412,7 @@
         <v>-2.9299999999999999E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:37">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="118">
         <v>-7.8449999999999995E-3</v>
       </c>
@@ -17552,7 +17525,7 @@
         <v>-2.6180000000000001E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:37">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="118">
         <v>-8.1080000000000006E-3</v>
       </c>
@@ -17665,7 +17638,7 @@
         <v>-2.1870000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:37">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="118">
         <v>-8.1810000000000008E-3</v>
       </c>
@@ -17778,7 +17751,7 @@
         <v>-2.0899999999999998E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:37">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="118">
         <v>-7.0410000000000004E-3</v>
       </c>
@@ -17891,7 +17864,7 @@
         <v>-1.684E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:37">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="118">
         <v>-7.5420000000000001E-3</v>
       </c>
@@ -18004,7 +17977,7 @@
         <v>-1.601E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:37">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="118">
         <v>-6.7739999999999996E-3</v>
       </c>
@@ -18117,7 +18090,7 @@
         <v>-1.341E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:37">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" s="118">
         <v>-5.7710000000000001E-3</v>
       </c>
@@ -18230,7 +18203,7 @@
         <v>-1.013E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:37">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" s="118">
         <v>-6.5979999999999997E-3</v>
       </c>
@@ -18343,7 +18316,7 @@
         <v>-1.0449999999999999E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:37">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" s="118">
         <v>-5.731E-3</v>
       </c>
@@ -18456,7 +18429,7 @@
         <v>-7.9299999999999998E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:37">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="118">
         <v>-5.2379999999999996E-3</v>
       </c>
@@ -18569,7 +18542,7 @@
         <v>-5.4199999999999995E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:37">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="118">
         <v>-5.9519999999999998E-3</v>
       </c>
@@ -18682,7 +18655,7 @@
         <v>-6.0300000000000002E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:37">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="118">
         <v>-5.2240000000000003E-3</v>
       </c>
@@ -18795,7 +18768,7 @@
         <v>-5.0199999999999995E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:37">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" s="118">
         <v>-4.816E-3</v>
       </c>
@@ -18908,7 +18881,7 @@
         <v>-2.8699999999999998E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:37">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="118">
         <v>-5.1489999999999999E-3</v>
       </c>
@@ -19021,7 +18994,7 @@
         <v>-2.9300000000000002E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:37">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" s="118">
         <v>-4.5799999999999999E-3</v>
       </c>
@@ -19134,7 +19107,7 @@
         <v>-1.8799999999999999E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:37">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" s="118">
         <v>-3.9309999999999996E-3</v>
       </c>
@@ -19247,7 +19220,7 @@
         <v>-8.2999999999999998E-5</v>
       </c>
     </row>
-    <row r="29" spans="1:37">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="118">
         <v>-4.3629999999999997E-3</v>
       </c>
@@ -19360,7 +19333,7 @@
         <v>-4.1999999999999998E-5</v>
       </c>
     </row>
-    <row r="30" spans="1:37">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" s="118">
         <v>-3.0850000000000001E-3</v>
       </c>
@@ -19473,7 +19446,7 @@
         <v>1.2999999999999999E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:37">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" s="118">
         <v>-3.1389999999999999E-3</v>
       </c>
@@ -19586,7 +19559,7 @@
         <v>2.1499999999999999E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:37">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" s="118">
         <v>-3.1210000000000001E-3</v>
       </c>
@@ -19699,7 +19672,7 @@
         <v>1.9100000000000001E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:37">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33" s="118">
         <v>-2.4740000000000001E-3</v>
       </c>
@@ -19812,7 +19785,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:37">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34" s="118">
         <v>-2.5569999999999998E-3</v>
       </c>
@@ -19925,7 +19898,7 @@
         <v>4.2299999999999998E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:37">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35" s="118">
         <v>-2.9510000000000001E-3</v>
       </c>
@@ -20038,7 +20011,7 @@
         <v>3.68E-4</v>
       </c>
     </row>
-    <row r="36" spans="1:37">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36" s="118">
         <v>-2.545E-3</v>
       </c>
@@ -20151,7 +20124,7 @@
         <v>4.57E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:37">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37" s="118">
         <v>-2.5179999999999998E-3</v>
       </c>
@@ -20264,7 +20237,7 @@
         <v>4.0099999999999999E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:37">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38" s="118">
         <v>-2.8119999999999998E-3</v>
       </c>
@@ -20377,7 +20350,7 @@
         <v>3.6900000000000002E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:37">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A39" s="118">
         <v>-2.5339999999999998E-3</v>
       </c>
@@ -20490,7 +20463,7 @@
         <v>3.57E-4</v>
       </c>
     </row>
-    <row r="40" spans="1:37">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A40" s="118">
         <v>-2.5709999999999999E-3</v>
       </c>
@@ -20603,7 +20576,7 @@
         <v>2.13E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:37">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A41" s="118">
         <v>-1.9480000000000001E-3</v>
       </c>
@@ -20716,7 +20689,7 @@
         <v>5.8E-5</v>
       </c>
     </row>
-    <row r="42" spans="1:37">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A42" s="118">
         <v>-2.0049999999999998E-3</v>
       </c>
@@ -20829,7 +20802,7 @@
         <v>-7.4999999999999993E-5</v>
       </c>
     </row>
-    <row r="43" spans="1:37">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A43" s="118">
         <v>-1.8489999999999999E-3</v>
       </c>
@@ -20942,7 +20915,7 @@
         <v>-3.48E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:37">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A44" s="118">
         <v>-1.8420000000000001E-3</v>
       </c>
@@ -21055,7 +21028,7 @@
         <v>-4.9799999999999996E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:37">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A45" s="118">
         <v>-1.792E-3</v>
       </c>
@@ -21168,7 +21141,7 @@
         <v>-8.0900000000000004E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:37">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A46" s="118">
         <v>-1.946E-3</v>
       </c>
@@ -21281,7 +21254,7 @@
         <v>-9.3700000000000001E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:37">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A47" s="118">
         <v>-1.89E-3</v>
       </c>
@@ -21394,7 +21367,7 @@
         <v>-1.034E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:37">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A48" s="118">
         <v>-1.9959999999999999E-3</v>
       </c>
@@ -21507,7 +21480,7 @@
         <v>-1.294E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:37">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A49" s="118">
         <v>-2.1489999999999999E-3</v>
       </c>
@@ -21620,7 +21593,7 @@
         <v>-1.457E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:37">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A50" s="118">
         <v>-1.9120000000000001E-3</v>
       </c>
@@ -21733,7 +21706,7 @@
         <v>-1.523E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:37">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A51" s="118">
         <v>-1.7960000000000001E-3</v>
       </c>
@@ -21846,7 +21819,7 @@
         <v>-1.642E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:37">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A52" s="118">
         <v>-1.7769999999999999E-3</v>
       </c>
@@ -21959,7 +21932,7 @@
         <v>-1.5770000000000001E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:37">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A53" s="118">
         <v>-1.918E-3</v>
       </c>
@@ -22072,7 +22045,7 @@
         <v>-1.8879999999999999E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:37">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A54" s="118">
         <v>-1.3630000000000001E-3</v>
       </c>
@@ -22185,7 +22158,7 @@
         <v>-1.784E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:37">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A55" s="118">
         <v>-1.34E-3</v>
       </c>
@@ -22298,7 +22271,7 @@
         <v>-1.835E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:37">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A56" s="118">
         <v>-1.142E-3</v>
       </c>
@@ -22411,7 +22384,7 @@
         <v>-1.885E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:37">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A57" s="118">
         <v>-7.5900000000000002E-4</v>
       </c>
@@ -22524,7 +22497,7 @@
         <v>-1.946E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:37">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A58" s="118">
         <v>-6.1399999999999996E-4</v>
       </c>
@@ -22637,7 +22610,7 @@
         <v>-1.946E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:37">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A59" s="118">
         <v>-4.7800000000000002E-4</v>
       </c>
@@ -22750,7 +22723,7 @@
         <v>-1.902E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:37">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A60" s="118">
         <v>-8.1000000000000004E-5</v>
       </c>
@@ -22863,7 +22836,7 @@
         <v>-1.9620000000000002E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:37">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A61" s="118">
         <v>-6.3E-5</v>
       </c>
@@ -22976,7 +22949,7 @@
         <v>-1.8990000000000001E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:37">
+    <row r="62" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A62" s="118">
         <v>-1.2999999999999999E-5</v>
       </c>
@@ -23089,7 +23062,7 @@
         <v>-1.882E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:37">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A63" s="118">
         <v>2.02E-4</v>
       </c>
@@ -23202,7 +23175,7 @@
         <v>-1.8400000000000001E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:37">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A64" s="118">
         <v>-1.2999999999999999E-4</v>
       </c>
@@ -23315,7 +23288,7 @@
         <v>-1.867E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:37">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A65" s="118">
         <v>-3.4200000000000002E-4</v>
       </c>
@@ -23428,7 +23401,7 @@
         <v>-1.8309999999999999E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:37">
+    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A66" s="118">
         <v>-4.3999999999999999E-5</v>
       </c>
@@ -23541,7 +23514,7 @@
         <v>-1.622E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:37">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A67" s="118">
         <v>9.9999999999999995E-7</v>
       </c>
@@ -23654,7 +23627,7 @@
         <v>-1.689E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:37">
+    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A68" s="118">
         <v>-1.7100000000000001E-4</v>
       </c>
@@ -23767,7 +23740,7 @@
         <v>-1.5870000000000001E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:37">
+    <row r="69" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A69" s="118">
         <v>1.15E-4</v>
       </c>
@@ -23880,7 +23853,7 @@
         <v>-1.482E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:37">
+    <row r="70" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A70" s="118">
         <v>1.02E-4</v>
       </c>
@@ -23993,7 +23966,7 @@
         <v>-1.3519999999999999E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:37">
+    <row r="71" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A71" s="118">
         <v>9.0000000000000006E-5</v>
       </c>
@@ -24106,7 +24079,7 @@
         <v>-1.2049999999999999E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:37">
+    <row r="72" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A72" s="118">
         <v>7.0699999999999995E-4</v>
       </c>
@@ -24219,7 +24192,7 @@
         <v>-1.191E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:37">
+    <row r="73" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A73" s="118">
         <v>4.6200000000000001E-4</v>
       </c>
@@ -24332,7 +24305,7 @@
         <v>-1.1100000000000001E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:37">
+    <row r="74" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A74" s="118">
         <v>1.178E-3</v>
       </c>
@@ -24445,7 +24418,7 @@
         <v>-1.1820000000000001E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:37">
+    <row r="75" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A75" s="118">
         <v>1.0859999999999999E-3</v>
       </c>
@@ -24558,7 +24531,7 @@
         <v>-1.0939999999999999E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:37">
+    <row r="76" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A76" s="118">
         <v>1.1479999999999999E-3</v>
       </c>
@@ -24671,7 +24644,7 @@
         <v>-1.0560000000000001E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:37">
+    <row r="77" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A77" s="118">
         <v>1.6659999999999999E-3</v>
       </c>
@@ -24784,7 +24757,7 @@
         <v>-1.0889999999999999E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:37">
+    <row r="78" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A78" s="118">
         <v>1.645E-3</v>
       </c>
@@ -24897,7 +24870,7 @@
         <v>-1.2639999999999999E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:37">
+    <row r="79" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A79" s="118">
         <v>1.446E-3</v>
       </c>
@@ -25010,7 +24983,7 @@
         <v>-1.175E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:37">
+    <row r="80" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A80" s="118">
         <v>1.7979999999999999E-3</v>
       </c>
@@ -25123,7 +25096,7 @@
         <v>-1.2800000000000001E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:37">
+    <row r="81" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A81" s="118">
         <v>1.81E-3</v>
       </c>
@@ -25236,7 +25209,7 @@
         <v>-1.4220000000000001E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:37">
+    <row r="82" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A82" s="118">
         <v>1.4289999999999999E-3</v>
       </c>
@@ -25349,7 +25322,7 @@
         <v>-1.397E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:37">
+    <row r="83" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A83" s="118">
         <v>2.15E-3</v>
       </c>
